--- a/data/trans_orig/IP07C19-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C19-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C437025-86F2-4121-85DD-2554A00FF518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAA706A0-6F57-4AF1-A331-AC3CF9691D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{CF20EC2E-1629-457F-90E8-078538B5F37C}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{E394C266-3A9D-4A05-990A-CA89CAE0A97C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -71,27 +71,216 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
     <t>5,85%</t>
   </si>
   <si>
@@ -119,33 +308,6 @@
     <t>8,26%</t>
   </si>
   <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
     <t>1,58%</t>
   </si>
   <si>
@@ -173,33 +335,6 @@
     <t>3,52%</t>
   </si>
   <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
     <t>2,2%</t>
   </si>
   <si>
@@ -227,139 +362,58 @@
     <t>3,44%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
   </si>
   <si>
     <t>6,49%</t>
@@ -389,33 +443,6 @@
     <t>9,07%</t>
   </si>
   <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
     <t>1,71%</t>
   </si>
   <si>
@@ -437,33 +464,6 @@
     <t>3,61%</t>
   </si>
   <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
     <t>2,4%</t>
   </si>
   <si>
@@ -494,6 +494,192 @@
     <t>Menores según frecuencia de burlarse de él otros chicos en 2012 (Tasa respuesta: 43,59%)</t>
   </si>
   <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
     <t>7,25%</t>
   </si>
   <si>
@@ -521,33 +707,6 @@
     <t>10,93%</t>
   </si>
   <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
     <t>7,43%</t>
   </si>
   <si>
@@ -575,39 +734,9 @@
     <t>9,64%</t>
   </si>
   <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
     <t>4,94%</t>
   </si>
   <si>
-    <t>7,62%</t>
-  </si>
-  <si>
     <t>5,42%</t>
   </si>
   <si>
@@ -623,133 +752,58 @@
     <t>6,93%</t>
   </si>
   <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
   </si>
   <si>
     <t>10,01%</t>
@@ -779,33 +833,6 @@
     <t>12,5%</t>
   </si>
   <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
     <t>9,96%</t>
   </si>
   <si>
@@ -824,33 +851,6 @@
     <t>10,27%</t>
   </si>
   <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
     <t>4,24%</t>
   </si>
   <si>
@@ -881,6 +881,180 @@
     <t>Menores según frecuencia de burlarse de él otros chicos en 2015 (Tasa respuesta: 45,77%)</t>
   </si>
   <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
     <t>8,5%</t>
   </si>
   <si>
@@ -899,39 +1073,9 @@
     <t>8,64%</t>
   </si>
   <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
     <t>6,02%</t>
   </si>
   <si>
-    <t>3,91%</t>
-  </si>
-  <si>
     <t>8,81%</t>
   </si>
   <si>
@@ -953,33 +1097,6 @@
     <t>8,07%</t>
   </si>
   <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
     <t>3,2%</t>
   </si>
   <si>
@@ -1007,121 +1124,55 @@
     <t>5,27%</t>
   </si>
   <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
   </si>
   <si>
     <t>7,97%</t>
@@ -1148,33 +1199,6 @@
     <t>5,39%</t>
   </si>
   <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
     <t>6,88%</t>
   </si>
   <si>
@@ -1202,30 +1226,6 @@
     <t>7,86%</t>
   </si>
   <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
     <t>3,17%</t>
   </si>
   <si>
@@ -1253,6 +1253,147 @@
     <t>Menores según frecuencia de burlarse de él otros chicos en 2023 (Tasa respuesta: 29,95%)</t>
   </si>
   <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
     <t>1,26%</t>
   </si>
   <si>
@@ -1280,30 +1421,6 @@
     <t>2,84%</t>
   </si>
   <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
     <t>1,61%</t>
   </si>
   <si>
@@ -1325,39 +1442,9 @@
     <t>2,08%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
     <t>3,85%</t>
   </si>
   <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
     <t>0,43%</t>
   </si>
   <si>
@@ -1373,91 +1460,40 @@
     <t>0,23%</t>
   </si>
   <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
   </si>
   <si>
     <t>1,41%</t>
@@ -1481,18 +1517,6 @@
     <t>2,64%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
     <t>0,53%</t>
   </si>
   <si>
@@ -1506,30 +1530,6 @@
   </si>
   <si>
     <t>1,01%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
   </si>
   <si>
     <t>0,52%</t>
@@ -1942,7 +1942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D98FE0-5183-478A-9B05-0D31891167FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B737250C-7AFE-47D9-A71F-53DC7C084590}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2332,10 +2332,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D10" s="7">
-        <v>14646</v>
+        <v>39110</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -2347,10 +2347,10 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I10" s="7">
-        <v>17610</v>
+        <v>35822</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>20</v>
@@ -2362,10 +2362,10 @@
         <v>22</v>
       </c>
       <c r="M10" s="7">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="N10" s="7">
-        <v>32256</v>
+        <v>74932</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>23</v>
@@ -2383,10 +2383,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D11" s="7">
-        <v>24422</v>
+        <v>11281</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>26</v>
@@ -2398,10 +2398,10 @@
         <v>28</v>
       </c>
       <c r="H11" s="7">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="I11" s="7">
-        <v>30346</v>
+        <v>2932</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>29</v>
@@ -2413,10 +2413,10 @@
         <v>31</v>
       </c>
       <c r="M11" s="7">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="N11" s="7">
-        <v>54768</v>
+        <v>14213</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>32</v>
@@ -2434,10 +2434,10 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D12" s="7">
-        <v>3963</v>
+        <v>5446</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>35</v>
@@ -2449,10 +2449,10 @@
         <v>37</v>
       </c>
       <c r="H12" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I12" s="7">
-        <v>7225</v>
+        <v>6960</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>38</v>
@@ -2464,19 +2464,19 @@
         <v>40</v>
       </c>
       <c r="M12" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N12" s="7">
-        <v>11189</v>
+        <v>12405</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,49 +2485,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>302</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>201959</v>
+        <v>1326</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>3</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1842</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="7">
-        <v>267</v>
-      </c>
-      <c r="I13" s="7">
-        <v>180767</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>5</v>
+      </c>
+      <c r="N13" s="7">
+        <v>3169</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M13" s="7">
-        <v>569</v>
-      </c>
-      <c r="N13" s="7">
-        <v>382726</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,49 +2536,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>5520</v>
+        <v>1907</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1325</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="7">
-        <v>8</v>
-      </c>
-      <c r="I14" s="7">
-        <v>5162</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>5</v>
+      </c>
+      <c r="N14" s="7">
+        <v>3232</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="M14" s="7">
-        <v>17</v>
-      </c>
-      <c r="N14" s="7">
-        <v>10682</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2587,102 +2587,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>376</v>
+        <v>90</v>
       </c>
       <c r="D15" s="7">
-        <v>250510</v>
+        <v>59069</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
-        <v>358</v>
+        <v>73</v>
       </c>
       <c r="I15" s="7">
-        <v>241110</v>
+        <v>48882</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
-        <v>734</v>
+        <v>163</v>
       </c>
       <c r="N15" s="7">
-        <v>491620</v>
+        <v>107951</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>9</v>
+        <v>302</v>
       </c>
       <c r="D16" s="7">
-        <v>5446</v>
+        <v>201959</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>267</v>
+      </c>
+      <c r="I16" s="7">
+        <v>180767</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H16" s="7">
-        <v>10</v>
-      </c>
-      <c r="I16" s="7">
-        <v>6960</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>569</v>
+      </c>
+      <c r="N16" s="7">
+        <v>382726</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="M16" s="7">
-        <v>19</v>
-      </c>
-      <c r="N16" s="7">
-        <v>12405</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2691,49 +2691,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D17" s="7">
-        <v>11281</v>
+        <v>24422</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>45</v>
+      </c>
+      <c r="I17" s="7">
+        <v>30346</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H17" s="7">
-        <v>5</v>
-      </c>
-      <c r="I17" s="7">
-        <v>2932</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>82</v>
+      </c>
+      <c r="N17" s="7">
+        <v>54768</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="M17" s="7">
-        <v>22</v>
-      </c>
-      <c r="N17" s="7">
-        <v>14213</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2742,49 +2742,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D18" s="7">
-        <v>1326</v>
+        <v>14646</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>27</v>
+      </c>
+      <c r="I18" s="7">
+        <v>17610</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="7">
-        <v>3</v>
-      </c>
-      <c r="I18" s="7">
-        <v>1842</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>49</v>
+      </c>
+      <c r="N18" s="7">
+        <v>32256</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="M18" s="7">
-        <v>5</v>
-      </c>
-      <c r="N18" s="7">
-        <v>3169</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,49 +2793,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D19" s="7">
-        <v>39110</v>
+        <v>3963</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>11</v>
+      </c>
+      <c r="I19" s="7">
+        <v>7225</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="7">
-        <v>53</v>
-      </c>
-      <c r="I19" s="7">
-        <v>35822</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>17</v>
+      </c>
+      <c r="N19" s="7">
+        <v>11189</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="M19" s="7">
-        <v>112</v>
-      </c>
-      <c r="N19" s="7">
-        <v>74932</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,40 +2844,40 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D20" s="7">
-        <v>1907</v>
+        <v>5520</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>8</v>
+      </c>
+      <c r="I20" s="7">
+        <v>5162</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1325</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>103</v>
       </c>
       <c r="M20" s="7">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N20" s="7">
-        <v>3232</v>
+        <v>10682</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>104</v>
@@ -2895,49 +2895,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>90</v>
+        <v>376</v>
       </c>
       <c r="D21" s="7">
-        <v>59069</v>
+        <v>250510</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
-        <v>73</v>
+        <v>358</v>
       </c>
       <c r="I21" s="7">
-        <v>48882</v>
+        <v>241110</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
-        <v>163</v>
+        <v>734</v>
       </c>
       <c r="N21" s="7">
-        <v>107951</v>
+        <v>491620</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,10 +2948,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>31</v>
+        <v>361</v>
       </c>
       <c r="D22" s="7">
-        <v>20091</v>
+        <v>241068</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>107</v>
@@ -2963,10 +2963,10 @@
         <v>109</v>
       </c>
       <c r="H22" s="7">
-        <v>37</v>
+        <v>320</v>
       </c>
       <c r="I22" s="7">
-        <v>24570</v>
+        <v>216589</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>110</v>
@@ -2978,10 +2978,10 @@
         <v>112</v>
       </c>
       <c r="M22" s="7">
-        <v>68</v>
+        <v>681</v>
       </c>
       <c r="N22" s="7">
-        <v>44661</v>
+        <v>457658</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>113</v>
@@ -3050,10 +3050,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D24" s="7">
-        <v>5290</v>
+        <v>20091</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>125</v>
@@ -3062,37 +3062,37 @@
         <v>126</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="H24" s="7">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="I24" s="7">
-        <v>9068</v>
+        <v>24570</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M24" s="7">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="N24" s="7">
-        <v>14357</v>
+        <v>44661</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,46 +3101,46 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>361</v>
+        <v>8</v>
       </c>
       <c r="D25" s="7">
-        <v>241068</v>
+        <v>5290</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="H25" s="7">
-        <v>320</v>
+        <v>14</v>
       </c>
       <c r="I25" s="7">
-        <v>216589</v>
+        <v>9068</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M25" s="7">
-        <v>681</v>
+        <v>22</v>
       </c>
       <c r="N25" s="7">
-        <v>457658</v>
+        <v>14357</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>140</v>
@@ -3209,13 +3209,13 @@
         <v>309578</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>431</v>
@@ -3224,13 +3224,13 @@
         <v>289992</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>897</v>
@@ -3239,13 +3239,13 @@
         <v>599571</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3264,7 +3264,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18EEEA29-EE61-4A10-9DD3-9AC9C9E83EDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319E7299-533D-4ACE-9D18-7A78C6774567}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3654,10 +3654,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D10" s="7">
-        <v>18729</v>
+        <v>39323</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>151</v>
@@ -3669,10 +3669,10 @@
         <v>153</v>
       </c>
       <c r="H10" s="7">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="I10" s="7">
-        <v>24907</v>
+        <v>37650</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>154</v>
@@ -3684,10 +3684,10 @@
         <v>156</v>
       </c>
       <c r="M10" s="7">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="N10" s="7">
-        <v>43637</v>
+        <v>76973</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>157</v>
@@ -3705,10 +3705,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D11" s="7">
-        <v>37624</v>
+        <v>6623</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>160</v>
@@ -3720,10 +3720,10 @@
         <v>162</v>
       </c>
       <c r="H11" s="7">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="I11" s="7">
-        <v>29361</v>
+        <v>7396</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>163</v>
@@ -3735,10 +3735,10 @@
         <v>165</v>
       </c>
       <c r="M11" s="7">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="N11" s="7">
-        <v>66986</v>
+        <v>14019</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>166</v>
@@ -3756,10 +3756,10 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D12" s="7">
-        <v>19196</v>
+        <v>13692</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>169</v>
@@ -3771,10 +3771,10 @@
         <v>171</v>
       </c>
       <c r="H12" s="7">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I12" s="7">
-        <v>18277</v>
+        <v>8275</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>172</v>
@@ -3786,10 +3786,10 @@
         <v>174</v>
       </c>
       <c r="M12" s="7">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="N12" s="7">
-        <v>37472</v>
+        <v>21967</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>175</v>
@@ -3807,10 +3807,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>249</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>170010</v>
+        <v>4926</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>178</v>
@@ -3822,10 +3822,10 @@
         <v>180</v>
       </c>
       <c r="H13" s="7">
-        <v>224</v>
+        <v>15</v>
       </c>
       <c r="I13" s="7">
-        <v>157097</v>
+        <v>10764</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>181</v>
@@ -3837,10 +3837,10 @@
         <v>183</v>
       </c>
       <c r="M13" s="7">
-        <v>473</v>
+        <v>22</v>
       </c>
       <c r="N13" s="7">
-        <v>327107</v>
+        <v>15690</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>184</v>
@@ -3858,25 +3858,25 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>12751</v>
+        <v>994</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>187</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>188</v>
       </c>
       <c r="H14" s="7">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="I14" s="7">
-        <v>13164</v>
+        <v>5284</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>189</v>
@@ -3888,19 +3888,19 @@
         <v>191</v>
       </c>
       <c r="M14" s="7">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="N14" s="7">
-        <v>25915</v>
+        <v>6278</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>192</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3909,102 +3909,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>380</v>
+        <v>91</v>
       </c>
       <c r="D15" s="7">
-        <v>258311</v>
+        <v>65558</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
-        <v>346</v>
+        <v>98</v>
       </c>
       <c r="I15" s="7">
-        <v>242806</v>
+        <v>69368</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
-        <v>726</v>
+        <v>189</v>
       </c>
       <c r="N15" s="7">
-        <v>501117</v>
+        <v>134927</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>19</v>
+        <v>249</v>
       </c>
       <c r="D16" s="7">
-        <v>13692</v>
+        <v>170010</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H16" s="7">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="I16" s="7">
-        <v>8275</v>
+        <v>157097</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M16" s="7">
-        <v>31</v>
+        <v>473</v>
       </c>
       <c r="N16" s="7">
-        <v>21967</v>
+        <v>327107</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,49 +4013,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D17" s="7">
-        <v>6623</v>
+        <v>37624</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H17" s="7">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="I17" s="7">
-        <v>7396</v>
+        <v>29361</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M17" s="7">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="N17" s="7">
-        <v>14019</v>
+        <v>66986</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4064,49 +4064,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D18" s="7">
-        <v>4926</v>
+        <v>18729</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H18" s="7">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="I18" s="7">
-        <v>10764</v>
+        <v>24907</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M18" s="7">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="N18" s="7">
-        <v>15690</v>
+        <v>43637</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4115,49 +4115,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D19" s="7">
-        <v>39323</v>
+        <v>19196</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H19" s="7">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="I19" s="7">
-        <v>37650</v>
+        <v>18277</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M19" s="7">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="N19" s="7">
-        <v>76973</v>
+        <v>37472</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,46 +4166,46 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D20" s="7">
-        <v>994</v>
+        <v>12751</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="H20" s="7">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="I20" s="7">
-        <v>5284</v>
+        <v>13164</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>188</v>
+        <v>232</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M20" s="7">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="N20" s="7">
-        <v>6278</v>
+        <v>25915</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>235</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>236</v>
@@ -4217,49 +4217,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>91</v>
+        <v>380</v>
       </c>
       <c r="D21" s="7">
-        <v>65558</v>
+        <v>258311</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
-        <v>98</v>
+        <v>346</v>
       </c>
       <c r="I21" s="7">
-        <v>69368</v>
+        <v>242806</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
-        <v>189</v>
+        <v>726</v>
       </c>
       <c r="N21" s="7">
-        <v>134927</v>
+        <v>501117</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,10 +4270,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>47</v>
+        <v>304</v>
       </c>
       <c r="D22" s="7">
-        <v>32421</v>
+        <v>209333</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>237</v>
@@ -4285,10 +4285,10 @@
         <v>239</v>
       </c>
       <c r="H22" s="7">
-        <v>46</v>
+        <v>277</v>
       </c>
       <c r="I22" s="7">
-        <v>33182</v>
+        <v>194747</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>240</v>
@@ -4300,10 +4300,10 @@
         <v>242</v>
       </c>
       <c r="M22" s="7">
-        <v>93</v>
+        <v>581</v>
       </c>
       <c r="N22" s="7">
-        <v>65603</v>
+        <v>404079</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>243</v>
@@ -4372,49 +4372,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D24" s="7">
-        <v>24122</v>
+        <v>32421</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>113</v>
+        <v>255</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>40</v>
+        <v>256</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H24" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I24" s="7">
-        <v>29041</v>
+        <v>33182</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>27</v>
+        <v>259</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M24" s="7">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="N24" s="7">
-        <v>53163</v>
+        <v>65603</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4423,40 +4423,40 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>304</v>
+        <v>36</v>
       </c>
       <c r="D25" s="7">
-        <v>209333</v>
+        <v>24122</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>261</v>
+        <v>131</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>262</v>
+        <v>94</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H25" s="7">
-        <v>277</v>
+        <v>42</v>
       </c>
       <c r="I25" s="7">
-        <v>194747</v>
+        <v>29041</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>265</v>
+        <v>72</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>266</v>
       </c>
       <c r="M25" s="7">
-        <v>581</v>
+        <v>78</v>
       </c>
       <c r="N25" s="7">
-        <v>404079</v>
+        <v>53163</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>267</v>
@@ -4531,13 +4531,13 @@
         <v>323869</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>444</v>
@@ -4546,13 +4546,13 @@
         <v>312174</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>915</v>
@@ -4561,13 +4561,13 @@
         <v>636043</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -4586,7 +4586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426183DB-C046-4955-AFC1-0E5786E3EBEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776CC0FC-FA97-45E6-B54A-13F20FDF8B77}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4976,10 +4976,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="D10" s="7">
-        <v>23244</v>
+        <v>48990</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>280</v>
@@ -4991,34 +4991,34 @@
         <v>282</v>
       </c>
       <c r="H10" s="7">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I10" s="7">
-        <v>12236</v>
+        <v>59440</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>24</v>
+        <v>283</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>102</v>
+        <v>284</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M10" s="7">
-        <v>48</v>
+        <v>160</v>
       </c>
       <c r="N10" s="7">
-        <v>35480</v>
+        <v>108430</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5027,49 +5027,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="D11" s="7">
-        <v>53997</v>
+        <v>12387</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>287</v>
+        <v>85</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H11" s="7">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="I11" s="7">
-        <v>51472</v>
+        <v>15840</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M11" s="7">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="N11" s="7">
-        <v>105470</v>
+        <v>28226</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5078,49 +5078,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D12" s="7">
-        <v>16445</v>
+        <v>4594</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H12" s="7">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I12" s="7">
-        <v>16074</v>
+        <v>7046</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M12" s="7">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="N12" s="7">
-        <v>32519</v>
+        <v>11640</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5129,49 +5129,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>232</v>
+        <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>170898</v>
+        <v>7573</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H13" s="7">
-        <v>238</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>168132</v>
+        <v>3407</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M13" s="7">
-        <v>470</v>
+        <v>16</v>
       </c>
       <c r="N13" s="7">
-        <v>339030</v>
+        <v>10981</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5180,49 +5180,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>8753</v>
+        <v>2321</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="H14" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>10724</v>
+        <v>1323</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>316</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>5</v>
+      </c>
+      <c r="N14" s="7">
+        <v>3644</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="M14" s="7">
-        <v>27</v>
-      </c>
-      <c r="N14" s="7">
-        <v>19477</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,102 +5231,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>370</v>
+        <v>110</v>
       </c>
       <c r="D15" s="7">
-        <v>273337</v>
+        <v>75866</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
-        <v>362</v>
+        <v>131</v>
       </c>
       <c r="I15" s="7">
-        <v>258639</v>
+        <v>87055</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
-        <v>732</v>
+        <v>241</v>
       </c>
       <c r="N15" s="7">
-        <v>531976</v>
+        <v>162921</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>7</v>
+        <v>232</v>
       </c>
       <c r="D16" s="7">
-        <v>4594</v>
+        <v>170898</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>238</v>
+      </c>
+      <c r="I16" s="7">
+        <v>168132</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="H16" s="7">
-        <v>11</v>
-      </c>
-      <c r="I16" s="7">
-        <v>7046</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>470</v>
+      </c>
+      <c r="N16" s="7">
+        <v>339030</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="M16" s="7">
-        <v>18</v>
-      </c>
-      <c r="N16" s="7">
-        <v>11640</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5335,49 +5335,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="D17" s="7">
-        <v>12387</v>
+        <v>53997</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>71</v>
+      </c>
+      <c r="I17" s="7">
+        <v>51472</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="H17" s="7">
-        <v>24</v>
-      </c>
-      <c r="I17" s="7">
-        <v>15840</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>142</v>
+      </c>
+      <c r="N17" s="7">
+        <v>105470</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="M17" s="7">
-        <v>42</v>
-      </c>
-      <c r="N17" s="7">
-        <v>28226</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5386,49 +5386,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D18" s="7">
-        <v>7573</v>
+        <v>23244</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>16</v>
+      </c>
+      <c r="I18" s="7">
+        <v>12236</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="H18" s="7">
-        <v>5</v>
-      </c>
-      <c r="I18" s="7">
-        <v>3407</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="K18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>48</v>
+      </c>
+      <c r="N18" s="7">
+        <v>35480</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="M18" s="7">
-        <v>16</v>
-      </c>
-      <c r="N18" s="7">
-        <v>10981</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5437,49 +5437,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="D19" s="7">
-        <v>48990</v>
+        <v>16445</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H19" s="7">
+        <v>22</v>
+      </c>
+      <c r="I19" s="7">
+        <v>16074</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>45</v>
+      </c>
+      <c r="N19" s="7">
+        <v>32519</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="H19" s="7">
-        <v>89</v>
-      </c>
-      <c r="I19" s="7">
-        <v>59440</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="M19" s="7">
-        <v>160</v>
-      </c>
-      <c r="N19" s="7">
-        <v>108430</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5488,43 +5488,43 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D20" s="7">
-        <v>2321</v>
+        <v>8753</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H20" s="7">
+        <v>15</v>
+      </c>
+      <c r="I20" s="7">
+        <v>10724</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1323</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>27</v>
+      </c>
+      <c r="N20" s="7">
+        <v>19477</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3644</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>359</v>
@@ -5539,49 +5539,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>110</v>
+        <v>370</v>
       </c>
       <c r="D21" s="7">
-        <v>75866</v>
+        <v>273337</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
-        <v>131</v>
+        <v>362</v>
       </c>
       <c r="I21" s="7">
-        <v>87055</v>
+        <v>258639</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
-        <v>241</v>
+        <v>732</v>
       </c>
       <c r="N21" s="7">
-        <v>162921</v>
+        <v>531976</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,10 +5592,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>39</v>
+        <v>303</v>
       </c>
       <c r="D22" s="7">
-        <v>27838</v>
+        <v>219888</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>361</v>
@@ -5607,34 +5607,34 @@
         <v>363</v>
       </c>
       <c r="H22" s="7">
-        <v>27</v>
+        <v>327</v>
       </c>
       <c r="I22" s="7">
-        <v>19282</v>
+        <v>227572</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>364</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>630</v>
+      </c>
+      <c r="N22" s="7">
+        <v>447460</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="M22" s="7">
-        <v>66</v>
-      </c>
-      <c r="N22" s="7">
-        <v>47120</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,10 +5694,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D24" s="7">
-        <v>24018</v>
+        <v>27838</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>378</v>
@@ -5712,7 +5712,7 @@
         <v>27</v>
       </c>
       <c r="I24" s="7">
-        <v>19481</v>
+        <v>19282</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>381</v>
@@ -5724,10 +5724,10 @@
         <v>383</v>
       </c>
       <c r="M24" s="7">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="N24" s="7">
-        <v>43500</v>
+        <v>47120</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>384</v>
@@ -5736,7 +5736,7 @@
         <v>385</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>386</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5745,40 +5745,40 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>303</v>
+        <v>34</v>
       </c>
       <c r="D25" s="7">
-        <v>219888</v>
+        <v>24018</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>27</v>
+      </c>
+      <c r="I25" s="7">
+        <v>19481</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="H25" s="7">
-        <v>327</v>
-      </c>
-      <c r="I25" s="7">
-        <v>227572</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>391</v>
       </c>
       <c r="M25" s="7">
-        <v>630</v>
+        <v>61</v>
       </c>
       <c r="N25" s="7">
-        <v>447460</v>
+        <v>43500</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>392</v>
@@ -5853,13 +5853,13 @@
         <v>349203</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>493</v>
@@ -5868,13 +5868,13 @@
         <v>345694</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>973</v>
@@ -5883,13 +5883,13 @@
         <v>694897</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -5908,7 +5908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8121D91-0F63-4B9D-AD40-84D43443BF4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EF9760-8762-4B4F-8434-B9F7B75EAEB3}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6298,10 +6298,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="D10" s="7">
-        <v>2832</v>
+        <v>36467</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>404</v>
@@ -6313,10 +6313,10 @@
         <v>406</v>
       </c>
       <c r="H10" s="7">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="I10" s="7">
-        <v>2868</v>
+        <v>30467</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>407</v>
@@ -6328,10 +6328,10 @@
         <v>409</v>
       </c>
       <c r="M10" s="7">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="N10" s="7">
-        <v>5699</v>
+        <v>66934</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>410</v>
@@ -6349,25 +6349,25 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>20432</v>
+        <v>3581</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>216</v>
+        <v>413</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>413</v>
+        <v>95</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>414</v>
       </c>
       <c r="H11" s="7">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>11537</v>
+        <v>2317</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>415</v>
@@ -6379,10 +6379,10 @@
         <v>417</v>
       </c>
       <c r="M11" s="7">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="N11" s="7">
-        <v>31968</v>
+        <v>5898</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>418</v>
@@ -6400,49 +6400,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>3615</v>
+        <v>906</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>421</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="H12" s="7">
-        <v>6</v>
-      </c>
-      <c r="I12" s="7">
-        <v>4582</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>1</v>
+      </c>
+      <c r="N12" s="7">
+        <v>906</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="L12" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="M12" s="7">
-        <v>11</v>
-      </c>
-      <c r="N12" s="7">
-        <v>8197</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>427</v>
-      </c>
       <c r="P12" s="7" t="s">
-        <v>428</v>
+        <v>44</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>429</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6451,49 +6451,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>226</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>196778</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>430</v>
+        <v>44</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="H13" s="7">
-        <v>194</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>147218</v>
+        <v>612</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>434</v>
+        <v>44</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>435</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
-        <v>420</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>343996</v>
+        <v>612</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>437</v>
+        <v>44</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6505,46 +6505,46 @@
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>969</v>
+        <v>422</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>2340</v>
+        <v>605</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>441</v>
+        <v>137</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>442</v>
+        <v>44</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>429</v>
+        <v>35</v>
       </c>
       <c r="M14" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>3309</v>
+        <v>1027</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>357</v>
+        <v>432</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>443</v>
+        <v>44</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>56</v>
+        <v>433</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6553,102 +6553,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>256</v>
+        <v>49</v>
       </c>
       <c r="D15" s="7">
-        <v>224625</v>
+        <v>41376</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="I15" s="7">
-        <v>168545</v>
+        <v>34001</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
-        <v>481</v>
+        <v>94</v>
       </c>
       <c r="N15" s="7">
-        <v>393170</v>
+        <v>75377</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>226</v>
       </c>
       <c r="D16" s="7">
-        <v>906</v>
+        <v>196778</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>82</v>
+        <v>435</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>147218</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>82</v>
+        <v>437</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>420</v>
       </c>
       <c r="N16" s="7">
-        <v>906</v>
+        <v>343996</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>82</v>
+        <v>441</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>107</v>
+        <v>442</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6657,49 +6657,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D17" s="7">
-        <v>3581</v>
+        <v>20432</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="H17" s="7">
+        <v>16</v>
+      </c>
+      <c r="I17" s="7">
+        <v>11537</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="M17" s="7">
+        <v>36</v>
+      </c>
+      <c r="N17" s="7">
+        <v>31968</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="H17" s="7">
-        <v>3</v>
-      </c>
-      <c r="I17" s="7">
-        <v>2317</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="M17" s="7">
-        <v>7</v>
-      </c>
-      <c r="N17" s="7">
-        <v>5898</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6708,46 +6708,46 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>2832</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>82</v>
+        <v>451</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="H18" s="7">
+        <v>6</v>
+      </c>
+      <c r="I18" s="7">
+        <v>2868</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="H18" s="7">
-        <v>1</v>
-      </c>
-      <c r="I18" s="7">
-        <v>612</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>10</v>
+      </c>
+      <c r="N18" s="7">
+        <v>5699</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1</v>
-      </c>
-      <c r="N18" s="7">
-        <v>612</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>459</v>
@@ -6759,10 +6759,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>36467</v>
+        <v>3615</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>460</v>
@@ -6774,10 +6774,10 @@
         <v>462</v>
       </c>
       <c r="H19" s="7">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="I19" s="7">
-        <v>30467</v>
+        <v>4582</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>463</v>
@@ -6789,19 +6789,19 @@
         <v>465</v>
       </c>
       <c r="M19" s="7">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="N19" s="7">
-        <v>66934</v>
+        <v>8197</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>466</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6813,46 +6813,46 @@
         <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>422</v>
+        <v>969</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>3</v>
+      </c>
+      <c r="I20" s="7">
+        <v>2340</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>605</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="K20" s="7" t="s">
-        <v>82</v>
+        <v>471</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>64</v>
+        <v>467</v>
       </c>
       <c r="M20" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N20" s="7">
-        <v>1027</v>
+        <v>3309</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>471</v>
+        <v>316</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>82</v>
+        <v>472</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>472</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6861,49 +6861,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>49</v>
+        <v>256</v>
       </c>
       <c r="D21" s="7">
-        <v>41376</v>
+        <v>224625</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="I21" s="7">
-        <v>34001</v>
+        <v>168545</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
-        <v>94</v>
+        <v>481</v>
       </c>
       <c r="N21" s="7">
-        <v>75377</v>
+        <v>393170</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6914,10 +6914,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>5</v>
+        <v>269</v>
       </c>
       <c r="D22" s="7">
-        <v>3738</v>
+        <v>233245</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>473</v>
@@ -6929,34 +6929,34 @@
         <v>475</v>
       </c>
       <c r="H22" s="7">
-        <v>6</v>
+        <v>234</v>
       </c>
       <c r="I22" s="7">
-        <v>2868</v>
+        <v>177685</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>42</v>
+        <v>476</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M22" s="7">
-        <v>11</v>
+        <v>503</v>
       </c>
       <c r="N22" s="7">
-        <v>6605</v>
+        <v>410929</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>479</v>
+        <v>442</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6971,10 +6971,10 @@
         <v>24013</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>118</v>
@@ -6986,13 +6986,13 @@
         <v>13854</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>415</v>
+        <v>445</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>43</v>
@@ -7001,13 +7001,13 @@
         <v>37867</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7019,46 +7019,46 @@
         <v>5</v>
       </c>
       <c r="D24" s="7">
-        <v>3615</v>
+        <v>3738</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="H24" s="7">
+        <v>6</v>
+      </c>
+      <c r="I24" s="7">
+        <v>2868</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="M24" s="7">
+        <v>11</v>
+      </c>
+      <c r="N24" s="7">
+        <v>6605</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="H24" s="7">
-        <v>7</v>
-      </c>
-      <c r="I24" s="7">
-        <v>5194</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="M24" s="7">
-        <v>12</v>
-      </c>
-      <c r="N24" s="7">
-        <v>8809</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>487</v>
-      </c>
       <c r="P24" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7067,40 +7067,40 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>269</v>
+        <v>5</v>
       </c>
       <c r="D25" s="7">
-        <v>233245</v>
+        <v>3615</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>489</v>
+        <v>432</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H25" s="7">
-        <v>234</v>
+        <v>7</v>
       </c>
       <c r="I25" s="7">
-        <v>177685</v>
+        <v>5194</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>492</v>
+        <v>271</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>493</v>
+        <v>145</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>494</v>
       </c>
       <c r="M25" s="7">
-        <v>503</v>
+        <v>12</v>
       </c>
       <c r="N25" s="7">
-        <v>410929</v>
+        <v>8809</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>495</v>
@@ -7109,7 +7109,7 @@
         <v>496</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>438</v>
+        <v>493</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7127,7 +7127,7 @@
         <v>497</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>498</v>
@@ -7139,7 +7139,7 @@
         <v>2945</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>410</v>
+        <v>457</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>499</v>
@@ -7175,13 +7175,13 @@
         <v>266001</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>270</v>
@@ -7190,13 +7190,13 @@
         <v>202546</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>575</v>
@@ -7205,13 +7205,13 @@
         <v>468546</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C19-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C19-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAA706A0-6F57-4AF1-A331-AC3CF9691D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7C3AFDE-F5AC-441B-8932-365A905520C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{E394C266-3A9D-4A05-990A-CA89CAE0A97C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{10BA2B81-B04B-4C0E-BD3B-292A888DF593}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="513">
   <si>
     <t>Menores según frecuencia de burlarse de él otros chicos en 2007 (Tasa respuesta: 42,63%)</t>
   </si>
@@ -68,1489 +68,1516 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de burlarse de él otros chicos en 2012 (Tasa respuesta: 43,59%)</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de burlarse de él otros chicos en 2015 (Tasa respuesta: 45,77%)</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de burlarse de él otros chicos en 2023 (Tasa respuesta: 29,95%)</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
   </si>
   <si>
     <t>2,27%</t>
   </si>
   <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
   </si>
   <si>
     <t>3,23%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
   </si>
   <si>
     <t>5,85%</t>
   </si>
   <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de burlarse de él otros chicos en 2012 (Tasa respuesta: 43,59%)</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>58,02%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de burlarse de él otros chicos en 2015 (Tasa respuesta: 45,77%)</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de burlarse de él otros chicos en 2023 (Tasa respuesta: 29,95%)</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
+    <t>11,6%</t>
   </si>
   <si>
     <t>87,69%</t>
   </si>
   <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
   </si>
   <si>
     <t>87,73%</t>
   </si>
   <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
   </si>
   <si>
     <t>87,7%</t>
   </si>
   <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
   </si>
 </sst>
 </file>
@@ -1561,7 +1588,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1657,39 +1684,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1741,7 +1768,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1852,13 +1879,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1867,6 +1887,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1931,19 +1958,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B737250C-7AFE-47D9-A71F-53DC7C084590}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D2A47DF-2C2D-40F3-967E-F8A18F567629}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2332,49 +2379,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>59</v>
-      </c>
-      <c r="D10" s="7">
-        <v>39110</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>53</v>
-      </c>
-      <c r="I10" s="7">
-        <v>35822</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>112</v>
-      </c>
-      <c r="N10" s="7">
-        <v>74932</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,49 +2424,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>17</v>
-      </c>
-      <c r="D11" s="7">
-        <v>11281</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2932</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>22</v>
-      </c>
-      <c r="N11" s="7">
-        <v>14213</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,49 +2469,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>9</v>
-      </c>
-      <c r="D12" s="7">
-        <v>5446</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>10</v>
-      </c>
-      <c r="I12" s="7">
-        <v>6960</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>19</v>
-      </c>
-      <c r="N12" s="7">
-        <v>12405</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,49 +2514,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1326</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1842</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>5</v>
-      </c>
-      <c r="N13" s="7">
-        <v>3169</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,49 +2559,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1907</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1325</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>5</v>
-      </c>
-      <c r="N14" s="7">
-        <v>3232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2587,102 +2604,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>90</v>
-      </c>
-      <c r="D15" s="7">
-        <v>59069</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>73</v>
-      </c>
-      <c r="I15" s="7">
-        <v>48882</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>163</v>
-      </c>
-      <c r="N15" s="7">
-        <v>107951</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>302</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>201959</v>
+        <v>3057</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>267</v>
+        <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>180767</v>
+        <v>2529</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>569</v>
+        <v>9</v>
       </c>
       <c r="N16" s="7">
-        <v>382726</v>
+        <v>5585</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2691,49 +2702,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>24422</v>
+        <v>1879</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="I17" s="7">
-        <v>30346</v>
+        <v>4319</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="N17" s="7">
-        <v>54768</v>
+        <v>6197</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2742,49 +2753,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D18" s="7">
-        <v>14646</v>
+        <v>10195</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I18" s="7">
-        <v>17610</v>
+        <v>12973</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="N18" s="7">
-        <v>32256</v>
+        <v>23168</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,49 +2804,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D19" s="7">
-        <v>3963</v>
+        <v>19344</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I19" s="7">
-        <v>7225</v>
+        <v>10508</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="M19" s="7">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="N19" s="7">
-        <v>11189</v>
+        <v>29852</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,49 +2855,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="D20" s="7">
-        <v>5520</v>
+        <v>89007</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="H20" s="7">
-        <v>8</v>
+        <v>122</v>
       </c>
       <c r="I20" s="7">
-        <v>5162</v>
+        <v>81382</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="M20" s="7">
-        <v>17</v>
+        <v>255</v>
       </c>
       <c r="N20" s="7">
-        <v>10682</v>
+        <v>170389</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,102 +2906,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>376</v>
+        <v>186</v>
       </c>
       <c r="D21" s="7">
-        <v>250510</v>
+        <v>123481</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H21" s="7">
-        <v>358</v>
+        <v>168</v>
       </c>
       <c r="I21" s="7">
-        <v>241110</v>
+        <v>111711</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
-        <v>734</v>
+        <v>354</v>
       </c>
       <c r="N21" s="7">
-        <v>491620</v>
+        <v>235192</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>361</v>
+        <v>7</v>
       </c>
       <c r="D22" s="7">
-        <v>241068</v>
+        <v>4370</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="H22" s="7">
-        <v>320</v>
+        <v>6</v>
       </c>
       <c r="I22" s="7">
-        <v>216589</v>
+        <v>3958</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="M22" s="7">
-        <v>681</v>
+        <v>13</v>
       </c>
       <c r="N22" s="7">
-        <v>457658</v>
+        <v>8328</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,49 +3010,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="D23" s="7">
-        <v>35703</v>
+        <v>3411</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="H23" s="7">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="I23" s="7">
-        <v>33278</v>
+        <v>4749</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="M23" s="7">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="N23" s="7">
-        <v>68981</v>
+        <v>8160</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,49 +3061,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D24" s="7">
-        <v>20091</v>
+        <v>9897</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="H24" s="7">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I24" s="7">
-        <v>24570</v>
+        <v>11597</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="M24" s="7">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="N24" s="7">
-        <v>44661</v>
+        <v>21493</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,49 +3112,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D25" s="7">
-        <v>5290</v>
+        <v>16359</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="H25" s="7">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I25" s="7">
-        <v>9068</v>
+        <v>22770</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="M25" s="7">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="N25" s="7">
-        <v>14357</v>
+        <v>39129</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,49 +3163,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="D26" s="7">
-        <v>7426</v>
+        <v>152061</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="H26" s="7">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="I26" s="7">
-        <v>6487</v>
+        <v>135208</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="M26" s="7">
-        <v>22</v>
+        <v>426</v>
       </c>
       <c r="N26" s="7">
-        <v>13913</v>
+        <v>287268</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,55 +3214,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>280</v>
+      </c>
+      <c r="D27" s="7">
+        <v>186097</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
+        <v>263</v>
+      </c>
+      <c r="I27" s="7">
+        <v>178282</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="7">
+        <v>543</v>
+      </c>
+      <c r="N27" s="7">
+        <v>364378</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>12</v>
+      </c>
+      <c r="D28" s="7">
+        <v>7426</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H28" s="7">
+        <v>10</v>
+      </c>
+      <c r="I28" s="7">
+        <v>6487</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M28" s="7">
+        <v>22</v>
+      </c>
+      <c r="N28" s="7">
+        <v>13913</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>8</v>
+      </c>
+      <c r="D29" s="7">
+        <v>5290</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H29" s="7">
+        <v>14</v>
+      </c>
+      <c r="I29" s="7">
+        <v>9068</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="M29" s="7">
+        <v>22</v>
+      </c>
+      <c r="N29" s="7">
+        <v>14357</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>31</v>
+      </c>
+      <c r="D30" s="7">
+        <v>20091</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H30" s="7">
+        <v>37</v>
+      </c>
+      <c r="I30" s="7">
+        <v>24570</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M30" s="7">
+        <v>68</v>
+      </c>
+      <c r="N30" s="7">
+        <v>44661</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>54</v>
+      </c>
+      <c r="D31" s="7">
+        <v>35703</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H31" s="7">
+        <v>50</v>
+      </c>
+      <c r="I31" s="7">
+        <v>33278</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="M31" s="7">
+        <v>104</v>
+      </c>
+      <c r="N31" s="7">
+        <v>68981</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>361</v>
+      </c>
+      <c r="D32" s="7">
+        <v>241068</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H32" s="7">
+        <v>320</v>
+      </c>
+      <c r="I32" s="7">
+        <v>216589</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M32" s="7">
+        <v>681</v>
+      </c>
+      <c r="N32" s="7">
+        <v>457658</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>466</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>309578</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>431</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>289992</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M33" s="7">
         <v>897</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>599571</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>60</v>
+      <c r="O33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3264,8 +3589,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319E7299-533D-4ACE-9D18-7A78C6774567}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{737D60C1-FBFC-4F0D-9979-40A1A23FEA64}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3281,7 +3606,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3654,49 +3979,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>55</v>
-      </c>
-      <c r="D10" s="7">
-        <v>39323</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>53</v>
-      </c>
-      <c r="I10" s="7">
-        <v>37650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>108</v>
-      </c>
-      <c r="N10" s="7">
-        <v>76973</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3705,49 +4024,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>9</v>
-      </c>
-      <c r="D11" s="7">
-        <v>6623</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>11</v>
-      </c>
-      <c r="I11" s="7">
-        <v>7396</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>20</v>
-      </c>
-      <c r="N11" s="7">
-        <v>14019</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3756,49 +4069,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>19</v>
-      </c>
-      <c r="D12" s="7">
-        <v>13692</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>12</v>
-      </c>
-      <c r="I12" s="7">
-        <v>8275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>173</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>174</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>31</v>
-      </c>
-      <c r="N12" s="7">
-        <v>21967</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>176</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>177</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3807,49 +4114,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
-      </c>
-      <c r="D13" s="7">
-        <v>4926</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>15</v>
-      </c>
-      <c r="I13" s="7">
-        <v>10764</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>22</v>
-      </c>
-      <c r="N13" s="7">
-        <v>15690</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>185</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3858,49 +4159,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7">
-        <v>994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>7</v>
-      </c>
-      <c r="I14" s="7">
-        <v>5284</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>8</v>
-      </c>
-      <c r="N14" s="7">
-        <v>6278</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3909,102 +4204,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>91</v>
-      </c>
-      <c r="D15" s="7">
-        <v>65558</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>98</v>
-      </c>
-      <c r="I15" s="7">
-        <v>69368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>189</v>
-      </c>
-      <c r="N15" s="7">
-        <v>134927</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>249</v>
+        <v>9</v>
       </c>
       <c r="D16" s="7">
-        <v>170010</v>
+        <v>6769</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
       <c r="H16" s="7">
-        <v>224</v>
+        <v>15</v>
       </c>
       <c r="I16" s="7">
-        <v>157097</v>
+        <v>10418</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="M16" s="7">
-        <v>473</v>
+        <v>24</v>
       </c>
       <c r="N16" s="7">
-        <v>327107</v>
+        <v>17187</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,49 +4302,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="D17" s="7">
-        <v>37624</v>
+        <v>12365</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="H17" s="7">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="I17" s="7">
-        <v>29361</v>
+        <v>16425</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="M17" s="7">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="N17" s="7">
-        <v>66986</v>
+        <v>28790</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4064,49 +4353,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D18" s="7">
-        <v>18729</v>
+        <v>23223</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>214</v>
+        <v>174</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="H18" s="7">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I18" s="7">
-        <v>24907</v>
+        <v>14574</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>217</v>
+        <v>177</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>218</v>
+        <v>178</v>
       </c>
       <c r="M18" s="7">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="N18" s="7">
-        <v>43637</v>
+        <v>37797</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>219</v>
+        <v>179</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4115,49 +4404,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D19" s="7">
-        <v>19196</v>
+        <v>18320</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>223</v>
+        <v>91</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="H19" s="7">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I19" s="7">
-        <v>18277</v>
+        <v>15881</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>225</v>
+        <v>184</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>227</v>
+        <v>186</v>
       </c>
       <c r="M19" s="7">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="N19" s="7">
-        <v>37472</v>
+        <v>34201</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>228</v>
+        <v>187</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>229</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,49 +4455,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="D20" s="7">
-        <v>12751</v>
+        <v>93186</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>92</v>
+        <v>190</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H20" s="7">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="I20" s="7">
-        <v>13164</v>
+        <v>92666</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="M20" s="7">
-        <v>38</v>
+        <v>268</v>
       </c>
       <c r="N20" s="7">
-        <v>25915</v>
+        <v>185852</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>46</v>
+        <v>196</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,102 +4506,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>380</v>
+        <v>221</v>
       </c>
       <c r="D21" s="7">
-        <v>258311</v>
+        <v>153863</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H21" s="7">
-        <v>346</v>
+        <v>214</v>
       </c>
       <c r="I21" s="7">
-        <v>242806</v>
+        <v>149965</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
-        <v>726</v>
+        <v>435</v>
       </c>
       <c r="N21" s="7">
-        <v>501117</v>
+        <v>303828</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>304</v>
+        <v>11</v>
       </c>
       <c r="D22" s="7">
-        <v>209333</v>
+        <v>6976</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="H22" s="7">
-        <v>277</v>
+        <v>11</v>
       </c>
       <c r="I22" s="7">
-        <v>194747</v>
+        <v>8030</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="M22" s="7">
-        <v>581</v>
+        <v>22</v>
       </c>
       <c r="N22" s="7">
-        <v>404079</v>
+        <v>15006</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,49 +4610,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="D23" s="7">
-        <v>44248</v>
+        <v>11757</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>246</v>
+        <v>171</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="H23" s="7">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="I23" s="7">
-        <v>36757</v>
+        <v>12615</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="M23" s="7">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="N23" s="7">
-        <v>81005</v>
+        <v>24373</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>254</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,49 +4661,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="D24" s="7">
-        <v>32421</v>
+        <v>9198</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>256</v>
+        <v>215</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="H24" s="7">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="I24" s="7">
-        <v>33182</v>
+        <v>18608</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>258</v>
+        <v>217</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>260</v>
+        <v>219</v>
       </c>
       <c r="M24" s="7">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="N24" s="7">
-        <v>65603</v>
+        <v>27806</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>262</v>
+        <v>221</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>263</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4423,49 +4712,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D25" s="7">
-        <v>24122</v>
+        <v>25928</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>94</v>
+        <v>224</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="H25" s="7">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I25" s="7">
-        <v>29041</v>
+        <v>20875</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>72</v>
+        <v>227</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="M25" s="7">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="N25" s="7">
-        <v>53163</v>
+        <v>46803</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4474,49 +4763,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>20</v>
+        <v>168</v>
       </c>
       <c r="D26" s="7">
-        <v>13745</v>
+        <v>116147</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="H26" s="7">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="I26" s="7">
-        <v>18448</v>
+        <v>102080</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="M26" s="7">
-        <v>46</v>
+        <v>313</v>
       </c>
       <c r="N26" s="7">
-        <v>32193</v>
+        <v>218227</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4525,55 +4814,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>250</v>
+      </c>
+      <c r="D27" s="7">
+        <v>170006</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
+        <v>230</v>
+      </c>
+      <c r="I27" s="7">
+        <v>162209</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="7">
+        <v>480</v>
+      </c>
+      <c r="N27" s="7">
+        <v>332215</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>20</v>
+      </c>
+      <c r="D28" s="7">
+        <v>13745</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H28" s="7">
+        <v>26</v>
+      </c>
+      <c r="I28" s="7">
+        <v>18448</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="M28" s="7">
+        <v>46</v>
+      </c>
+      <c r="N28" s="7">
+        <v>32193</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>36</v>
+      </c>
+      <c r="D29" s="7">
+        <v>24122</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H29" s="7">
+        <v>42</v>
+      </c>
+      <c r="I29" s="7">
+        <v>29041</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M29" s="7">
+        <v>78</v>
+      </c>
+      <c r="N29" s="7">
+        <v>53163</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>47</v>
+      </c>
+      <c r="D30" s="7">
+        <v>32421</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H30" s="7">
+        <v>46</v>
+      </c>
+      <c r="I30" s="7">
+        <v>33182</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="M30" s="7">
+        <v>93</v>
+      </c>
+      <c r="N30" s="7">
+        <v>65603</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>64</v>
+      </c>
+      <c r="D31" s="7">
+        <v>44248</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H31" s="7">
+        <v>53</v>
+      </c>
+      <c r="I31" s="7">
+        <v>36757</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="M31" s="7">
+        <v>117</v>
+      </c>
+      <c r="N31" s="7">
+        <v>81005</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>304</v>
+      </c>
+      <c r="D32" s="7">
+        <v>209333</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H32" s="7">
+        <v>277</v>
+      </c>
+      <c r="I32" s="7">
+        <v>194747</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="M32" s="7">
+        <v>581</v>
+      </c>
+      <c r="N32" s="7">
+        <v>404079</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>471</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>323869</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>444</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>312174</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M33" s="7">
         <v>915</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>636043</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>60</v>
+      <c r="O33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4586,8 +5189,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776CC0FC-FA97-45E6-B54A-13F20FDF8B77}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD55B431-247F-48B8-B6A6-98B7105F2ED2}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4976,49 +5579,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>71</v>
-      </c>
-      <c r="D10" s="7">
-        <v>48990</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>280</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>281</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>282</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>89</v>
-      </c>
-      <c r="I10" s="7">
-        <v>59440</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>283</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>284</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>285</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>160</v>
-      </c>
-      <c r="N10" s="7">
-        <v>108430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>286</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>287</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>288</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5027,49 +5624,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>18</v>
-      </c>
-      <c r="D11" s="7">
-        <v>12387</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>289</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>290</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>24</v>
-      </c>
-      <c r="I11" s="7">
-        <v>15840</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>291</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>293</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>42</v>
-      </c>
-      <c r="N11" s="7">
-        <v>28226</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>294</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>295</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>296</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5078,49 +5669,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>7</v>
-      </c>
-      <c r="D12" s="7">
-        <v>4594</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>297</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>298</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>299</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>11</v>
-      </c>
-      <c r="I12" s="7">
-        <v>7046</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>300</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>301</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>302</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>18</v>
-      </c>
-      <c r="N12" s="7">
-        <v>11640</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>303</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>304</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>305</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5129,49 +5714,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>11</v>
-      </c>
-      <c r="D13" s="7">
-        <v>7573</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>306</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>307</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>308</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7">
-        <v>3407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>309</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>310</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>311</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>16</v>
-      </c>
-      <c r="N13" s="7">
-        <v>10981</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>312</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>313</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>314</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5180,49 +5759,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
-      </c>
-      <c r="D14" s="7">
-        <v>2321</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>315</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>316</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>267</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1323</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>317</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>5</v>
-      </c>
-      <c r="N14" s="7">
-        <v>3644</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>318</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>319</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,102 +5804,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>110</v>
-      </c>
-      <c r="D15" s="7">
-        <v>75866</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>131</v>
-      </c>
-      <c r="I15" s="7">
-        <v>87055</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>241</v>
-      </c>
-      <c r="N15" s="7">
-        <v>162921</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>232</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>170898</v>
+        <v>3748</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>320</v>
+        <v>157</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>321</v>
+        <v>280</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>322</v>
+        <v>281</v>
       </c>
       <c r="H16" s="7">
-        <v>238</v>
+        <v>7</v>
       </c>
       <c r="I16" s="7">
-        <v>168132</v>
+        <v>4666</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>323</v>
+        <v>282</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>324</v>
+        <v>78</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>325</v>
+        <v>283</v>
       </c>
       <c r="M16" s="7">
-        <v>470</v>
+        <v>12</v>
       </c>
       <c r="N16" s="7">
-        <v>339030</v>
+        <v>8414</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>327</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5335,49 +5902,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="D17" s="7">
-        <v>53997</v>
+        <v>12469</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="H17" s="7">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="I17" s="7">
-        <v>51472</v>
+        <v>10525</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>333</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>334</v>
+        <v>129</v>
       </c>
       <c r="M17" s="7">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="N17" s="7">
-        <v>105470</v>
+        <v>22994</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5386,49 +5953,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D18" s="7">
-        <v>23244</v>
+        <v>18226</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>338</v>
+        <v>293</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>339</v>
+        <v>294</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>340</v>
+        <v>295</v>
       </c>
       <c r="H18" s="7">
         <v>16</v>
       </c>
       <c r="I18" s="7">
-        <v>12236</v>
+        <v>11313</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>87</v>
+        <v>296</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>341</v>
+        <v>297</v>
       </c>
       <c r="M18" s="7">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="N18" s="7">
-        <v>35480</v>
+        <v>29539</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>343</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5437,49 +6004,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D19" s="7">
-        <v>16445</v>
+        <v>32980</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>344</v>
+        <v>300</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="H19" s="7">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I19" s="7">
-        <v>16074</v>
+        <v>31445</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>346</v>
+        <v>303</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>347</v>
+        <v>304</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>348</v>
+        <v>305</v>
       </c>
       <c r="M19" s="7">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="N19" s="7">
-        <v>32519</v>
+        <v>64425</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>349</v>
+        <v>306</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>351</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5488,49 +6055,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="D20" s="7">
-        <v>8753</v>
+        <v>111188</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>352</v>
+        <v>309</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>353</v>
+        <v>310</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>354</v>
+        <v>311</v>
       </c>
       <c r="H20" s="7">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="I20" s="7">
-        <v>10724</v>
+        <v>122938</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>355</v>
+        <v>312</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
       <c r="M20" s="7">
-        <v>27</v>
+        <v>331</v>
       </c>
       <c r="N20" s="7">
-        <v>19477</v>
+        <v>234126</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>359</v>
+        <v>316</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>360</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5539,102 +6106,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>370</v>
+        <v>250</v>
       </c>
       <c r="D21" s="7">
-        <v>273337</v>
+        <v>178611</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H21" s="7">
-        <v>362</v>
+        <v>259</v>
       </c>
       <c r="I21" s="7">
-        <v>258639</v>
+        <v>180887</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
-        <v>732</v>
+        <v>509</v>
       </c>
       <c r="N21" s="7">
-        <v>531976</v>
+        <v>359498</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>303</v>
+        <v>10</v>
       </c>
       <c r="D22" s="7">
-        <v>219888</v>
+        <v>7326</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>361</v>
+        <v>318</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>363</v>
+        <v>320</v>
       </c>
       <c r="H22" s="7">
-        <v>327</v>
+        <v>10</v>
       </c>
       <c r="I22" s="7">
-        <v>227572</v>
+        <v>7381</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>364</v>
+        <v>321</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>21</v>
+        <v>322</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>365</v>
+        <v>202</v>
       </c>
       <c r="M22" s="7">
-        <v>630</v>
+        <v>20</v>
       </c>
       <c r="N22" s="7">
-        <v>447460</v>
+        <v>14707</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>366</v>
+        <v>323</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>367</v>
+        <v>324</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>368</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5643,49 +6210,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="D23" s="7">
-        <v>66384</v>
+        <v>11550</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>369</v>
+        <v>325</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>370</v>
+        <v>198</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>371</v>
+        <v>326</v>
       </c>
       <c r="H23" s="7">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I23" s="7">
-        <v>67312</v>
+        <v>8956</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>372</v>
+        <v>327</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>373</v>
+        <v>328</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>374</v>
+        <v>329</v>
       </c>
       <c r="M23" s="7">
-        <v>184</v>
+        <v>28</v>
       </c>
       <c r="N23" s="7">
-        <v>133696</v>
+        <v>20505</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>375</v>
+        <v>330</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>376</v>
+        <v>331</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>377</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,49 +6261,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D24" s="7">
-        <v>27838</v>
+        <v>9612</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>378</v>
+        <v>332</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>379</v>
+        <v>333</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>380</v>
+        <v>334</v>
       </c>
       <c r="H24" s="7">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="I24" s="7">
-        <v>19282</v>
+        <v>7969</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>381</v>
+        <v>335</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>382</v>
+        <v>336</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>383</v>
+        <v>202</v>
       </c>
       <c r="M24" s="7">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="N24" s="7">
-        <v>47120</v>
+        <v>17581</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>384</v>
+        <v>337</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>385</v>
+        <v>338</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>128</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5745,49 +6312,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D25" s="7">
-        <v>24018</v>
+        <v>33404</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>386</v>
+        <v>340</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>387</v>
+        <v>341</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>388</v>
+        <v>342</v>
       </c>
       <c r="H25" s="7">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="I25" s="7">
-        <v>19481</v>
+        <v>35867</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>389</v>
+        <v>343</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>390</v>
+        <v>344</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>391</v>
+        <v>345</v>
       </c>
       <c r="M25" s="7">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="N25" s="7">
-        <v>43500</v>
+        <v>69272</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>392</v>
+        <v>346</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>394</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5796,49 +6363,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="D26" s="7">
-        <v>11074</v>
+        <v>108699</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>395</v>
+        <v>349</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>396</v>
+        <v>350</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>397</v>
+        <v>351</v>
       </c>
       <c r="H26" s="7">
-        <v>17</v>
+        <v>152</v>
       </c>
       <c r="I26" s="7">
-        <v>12047</v>
+        <v>104634</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>398</v>
+        <v>352</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>399</v>
+        <v>353</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>400</v>
+        <v>354</v>
       </c>
       <c r="M26" s="7">
-        <v>32</v>
+        <v>299</v>
       </c>
       <c r="N26" s="7">
-        <v>23121</v>
+        <v>213334</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>401</v>
+        <v>355</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>141</v>
+        <v>356</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>402</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5847,55 +6414,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>230</v>
+      </c>
+      <c r="D27" s="7">
+        <v>170592</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
+        <v>234</v>
+      </c>
+      <c r="I27" s="7">
+        <v>164807</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="7">
+        <v>464</v>
+      </c>
+      <c r="N27" s="7">
+        <v>335399</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>15</v>
+      </c>
+      <c r="D28" s="7">
+        <v>11074</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="H28" s="7">
+        <v>17</v>
+      </c>
+      <c r="I28" s="7">
+        <v>12047</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="M28" s="7">
+        <v>32</v>
+      </c>
+      <c r="N28" s="7">
+        <v>23121</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>34</v>
+      </c>
+      <c r="D29" s="7">
+        <v>24018</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="H29" s="7">
+        <v>27</v>
+      </c>
+      <c r="I29" s="7">
+        <v>19481</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="M29" s="7">
+        <v>61</v>
+      </c>
+      <c r="N29" s="7">
+        <v>43500</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>39</v>
+      </c>
+      <c r="D30" s="7">
+        <v>27838</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="H30" s="7">
+        <v>27</v>
+      </c>
+      <c r="I30" s="7">
+        <v>19282</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="M30" s="7">
+        <v>66</v>
+      </c>
+      <c r="N30" s="7">
+        <v>47120</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>89</v>
+      </c>
+      <c r="D31" s="7">
+        <v>66384</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="H31" s="7">
+        <v>95</v>
+      </c>
+      <c r="I31" s="7">
+        <v>67312</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="M31" s="7">
+        <v>184</v>
+      </c>
+      <c r="N31" s="7">
+        <v>133696</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>303</v>
+      </c>
+      <c r="D32" s="7">
+        <v>219888</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="H32" s="7">
+        <v>327</v>
+      </c>
+      <c r="I32" s="7">
+        <v>227572</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="M32" s="7">
+        <v>630</v>
+      </c>
+      <c r="N32" s="7">
+        <v>447460</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>480</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>349203</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>493</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>345694</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M33" s="7">
         <v>973</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>694897</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>60</v>
+      <c r="O33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5908,8 +6789,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EF9760-8762-4B4F-8434-B9F7B75EAEB3}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E52AFEA-3C7E-4811-94D0-341EE2AD25BC}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5925,7 +6806,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6298,49 +7179,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>43</v>
-      </c>
-      <c r="D10" s="7">
-        <v>36467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>404</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>405</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>406</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>40</v>
-      </c>
-      <c r="I10" s="7">
-        <v>30467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>407</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>408</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>409</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>83</v>
-      </c>
-      <c r="N10" s="7">
-        <v>66934</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>410</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>411</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>412</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6349,49 +7224,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
-      </c>
-      <c r="D11" s="7">
-        <v>3581</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>413</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>414</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2317</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>415</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>416</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>417</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>7</v>
-      </c>
-      <c r="N11" s="7">
-        <v>5898</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>418</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>419</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>420</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6400,49 +7269,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7">
-        <v>906</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>421</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>422</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
       </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>423</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>424</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>1</v>
-      </c>
-      <c r="N12" s="7">
-        <v>906</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>425</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6453,47 +7316,41 @@
       <c r="C13" s="7">
         <v>0</v>
       </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>423</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>426</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>612</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>427</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
-      </c>
-      <c r="N13" s="7">
-        <v>612</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>428</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>429</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6502,49 +7359,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7">
-        <v>422</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>430</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>431</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>605</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1027</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>432</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>433</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6553,102 +7404,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>49</v>
-      </c>
-      <c r="D15" s="7">
-        <v>41376</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>45</v>
-      </c>
-      <c r="I15" s="7">
-        <v>34001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>94</v>
-      </c>
-      <c r="N15" s="7">
-        <v>75377</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>226</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>196778</v>
+        <v>1391</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>434</v>
+        <v>401</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>435</v>
+        <v>402</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>436</v>
+        <v>403</v>
       </c>
       <c r="H16" s="7">
-        <v>194</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>147218</v>
+        <v>1363</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>437</v>
+        <v>404</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>438</v>
+        <v>402</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>439</v>
+        <v>405</v>
       </c>
       <c r="M16" s="7">
-        <v>420</v>
+        <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>343996</v>
+        <v>2754</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>440</v>
+        <v>31</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>441</v>
+        <v>28</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>442</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6657,49 +7502,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>20432</v>
+        <v>2433</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>182</v>
+        <v>406</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="H17" s="7">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>11537</v>
+        <v>1443</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>445</v>
+        <v>409</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>446</v>
+        <v>402</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>447</v>
+        <v>410</v>
       </c>
       <c r="M17" s="7">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="N17" s="7">
-        <v>31968</v>
+        <v>3876</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>448</v>
+        <v>411</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>449</v>
+        <v>412</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>450</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6708,49 +7553,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>2832</v>
+        <v>906</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>451</v>
+        <v>414</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>452</v>
+        <v>402</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>453</v>
+        <v>123</v>
       </c>
       <c r="H18" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I18" s="7">
-        <v>2868</v>
+        <v>572</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>454</v>
+        <v>415</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>455</v>
+        <v>402</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>456</v>
+        <v>416</v>
       </c>
       <c r="M18" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N18" s="7">
-        <v>5699</v>
+        <v>1478</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>458</v>
+        <v>418</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>459</v>
+        <v>419</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6759,49 +7604,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D19" s="7">
-        <v>3615</v>
+        <v>11060</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>461</v>
+        <v>421</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>462</v>
+        <v>422</v>
       </c>
       <c r="H19" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I19" s="7">
-        <v>4582</v>
+        <v>7293</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>463</v>
+        <v>423</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>465</v>
+        <v>425</v>
       </c>
       <c r="M19" s="7">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N19" s="7">
-        <v>8197</v>
+        <v>18353</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>466</v>
+        <v>426</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>467</v>
+        <v>428</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6810,49 +7655,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D20" s="7">
-        <v>969</v>
+        <v>83559</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>468</v>
+        <v>429</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>44</v>
+        <v>430</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>469</v>
+        <v>431</v>
       </c>
       <c r="H20" s="7">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="I20" s="7">
-        <v>2340</v>
+        <v>60994</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>470</v>
+        <v>432</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>471</v>
+        <v>433</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>467</v>
+        <v>434</v>
       </c>
       <c r="M20" s="7">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="N20" s="7">
-        <v>3309</v>
+        <v>144553</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>316</v>
+        <v>435</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>472</v>
+        <v>436</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>101</v>
+        <v>437</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6861,99 +7706,99 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>256</v>
+        <v>119</v>
       </c>
       <c r="D21" s="7">
-        <v>224625</v>
+        <v>99348</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H21" s="7">
-        <v>225</v>
+        <v>95</v>
       </c>
       <c r="I21" s="7">
-        <v>168545</v>
+        <v>71665</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
-        <v>481</v>
+        <v>214</v>
       </c>
       <c r="N21" s="7">
-        <v>393170</v>
+        <v>171014</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>269</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>233245</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>473</v>
+        <v>402</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>474</v>
+        <v>438</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>475</v>
+        <v>69</v>
       </c>
       <c r="H22" s="7">
-        <v>234</v>
+        <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>177685</v>
+        <v>1582</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>476</v>
+        <v>439</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>477</v>
+        <v>402</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="M22" s="7">
-        <v>503</v>
+        <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>410929</v>
+        <v>1582</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>479</v>
+        <v>441</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>480</v>
+        <v>402</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>442</v>
@@ -6965,49 +7810,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>24013</v>
+        <v>1182</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>311</v>
+        <v>443</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>118</v>
+        <v>444</v>
       </c>
       <c r="H23" s="7">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I23" s="7">
-        <v>13854</v>
+        <v>3751</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>445</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>481</v>
+        <v>446</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>447</v>
       </c>
       <c r="M23" s="7">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="N23" s="7">
-        <v>37867</v>
+        <v>4933</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>482</v>
+        <v>448</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>483</v>
+        <v>449</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>484</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7016,49 +7861,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" s="7">
-        <v>3738</v>
+        <v>2832</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>485</v>
+        <v>451</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>486</v>
+        <v>452</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>487</v>
+        <v>453</v>
       </c>
       <c r="H24" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I24" s="7">
-        <v>2868</v>
+        <v>2296</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>96</v>
+        <v>454</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>488</v>
+        <v>455</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>489</v>
+        <v>456</v>
       </c>
       <c r="M24" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N24" s="7">
-        <v>6605</v>
+        <v>5127</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>485</v>
+        <v>457</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>490</v>
+        <v>458</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>491</v>
+        <v>459</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7067,49 +7912,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D25" s="7">
-        <v>3615</v>
+        <v>12953</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>432</v>
+        <v>460</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>492</v>
+        <v>461</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>493</v>
+        <v>462</v>
       </c>
       <c r="H25" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I25" s="7">
-        <v>5194</v>
+        <v>6560</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>271</v>
+        <v>360</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>145</v>
+        <v>463</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="M25" s="7">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="N25" s="7">
-        <v>8809</v>
+        <v>19514</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>496</v>
+        <v>466</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>493</v>
+        <v>467</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7118,49 +7963,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>2</v>
+        <v>169</v>
       </c>
       <c r="D26" s="7">
-        <v>1391</v>
+        <v>149685</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>497</v>
+        <v>468</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>44</v>
+        <v>469</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>498</v>
+        <v>470</v>
       </c>
       <c r="H26" s="7">
-        <v>4</v>
+        <v>154</v>
       </c>
       <c r="I26" s="7">
-        <v>2945</v>
+        <v>116691</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>500</v>
+        <v>473</v>
       </c>
       <c r="M26" s="7">
-        <v>6</v>
+        <v>323</v>
       </c>
       <c r="N26" s="7">
-        <v>4336</v>
+        <v>266377</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>501</v>
+        <v>474</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>502</v>
+        <v>475</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>503</v>
+        <v>476</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7169,55 +8014,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>186</v>
+      </c>
+      <c r="D27" s="7">
+        <v>166652</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
+        <v>175</v>
+      </c>
+      <c r="I27" s="7">
+        <v>130880</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="7">
+        <v>361</v>
+      </c>
+      <c r="N27" s="7">
+        <v>297533</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>2</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1391</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="H28" s="7">
+        <v>4</v>
+      </c>
+      <c r="I28" s="7">
+        <v>2945</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="M28" s="7">
+        <v>6</v>
+      </c>
+      <c r="N28" s="7">
+        <v>4336</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>5</v>
+      </c>
+      <c r="D29" s="7">
+        <v>3615</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="H29" s="7">
+        <v>7</v>
+      </c>
+      <c r="I29" s="7">
+        <v>5194</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M29" s="7">
+        <v>12</v>
+      </c>
+      <c r="N29" s="7">
+        <v>8809</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>5</v>
+      </c>
+      <c r="D30" s="7">
+        <v>3738</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="H30" s="7">
+        <v>6</v>
+      </c>
+      <c r="I30" s="7">
+        <v>2868</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="M30" s="7">
+        <v>11</v>
+      </c>
+      <c r="N30" s="7">
+        <v>6605</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>24</v>
+      </c>
+      <c r="D31" s="7">
+        <v>24013</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H31" s="7">
+        <v>19</v>
+      </c>
+      <c r="I31" s="7">
+        <v>13854</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="M31" s="7">
+        <v>43</v>
+      </c>
+      <c r="N31" s="7">
+        <v>37867</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>269</v>
+      </c>
+      <c r="D32" s="7">
+        <v>233245</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="H32" s="7">
+        <v>234</v>
+      </c>
+      <c r="I32" s="7">
+        <v>177685</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="M32" s="7">
+        <v>503</v>
+      </c>
+      <c r="N32" s="7">
+        <v>410929</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>305</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>266001</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>270</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>202546</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M33" s="7">
         <v>575</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>468546</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>60</v>
+      <c r="O33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07C19-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C19-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7C3AFDE-F5AC-441B-8932-365A905520C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07ECBFDA-CE66-44B0-A263-7CFCC0237E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{10BA2B81-B04B-4C0E-BD3B-292A888DF593}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{371B8AAF-819E-4B1F-A561-D3CEE508E70C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="506">
   <si>
     <t>Menores según frecuencia de burlarse de él otros chicos en 2007 (Tasa respuesta: 42,63%)</t>
   </si>
@@ -98,10 +98,10 @@
     <t>2,48%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
   </si>
   <si>
     <t>2,26%</t>
@@ -110,1474 +110,1453 @@
     <t>0,56%</t>
   </si>
   <si>
-    <t>5,57%</t>
+    <t>5,49%</t>
   </si>
   <si>
     <t>2,37%</t>
   </si>
   <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
     <t>1,26%</t>
   </si>
   <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
   </si>
   <si>
     <t>4,21%</t>
   </si>
   <si>
-    <t>3,87%</t>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de burlarse de él otros chicos en 2012 (Tasa respuesta: 43,59%)</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de burlarse de él otros chicos en 2016 (Tasa respuesta: 45,77%)</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de burlarse de él otros chicos en 2023 (Tasa respuesta: 29,95%)</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
   </si>
   <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>0%</t>
   </si>
   <si>
     <t>1,03%</t>
   </si>
   <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
     <t>4,99%</t>
   </si>
   <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de burlarse de él otros chicos en 2012 (Tasa respuesta: 43,59%)</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de burlarse de él otros chicos en 2015 (Tasa respuesta: 45,77%)</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de burlarse de él otros chicos en 2023 (Tasa respuesta: 29,95%)</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
+    <t>3,15%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
+    <t>3,42%</t>
   </si>
   <si>
     <t>1,42%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
   </si>
   <si>
     <t>9,03%</t>
   </si>
   <si>
-    <t>5,59%</t>
+    <t>14,63%</t>
   </si>
   <si>
     <t>6,84%</t>
   </si>
   <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
+    <t>10,46%</t>
   </si>
   <si>
     <t>8,08%</t>
   </si>
   <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
   </si>
   <si>
     <t>87,69%</t>
   </si>
   <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
   </si>
   <si>
     <t>87,73%</t>
   </si>
   <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
   </si>
   <si>
     <t>87,7%</t>
   </si>
   <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
   </si>
 </sst>
 </file>
@@ -1989,7 +1968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D2A47DF-2C2D-40F3-967E-F8A18F567629}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94C91B8-A8EC-4DF5-879E-863F10F2156A}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3052,7 +3031,7 @@
         <v>81</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,13 +3046,13 @@
         <v>9897</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H24" s="7">
         <v>18</v>
@@ -3082,13 +3061,13 @@
         <v>11597</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M24" s="7">
         <v>33</v>
@@ -3097,13 +3076,13 @@
         <v>21493</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,13 +3097,13 @@
         <v>16359</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H25" s="7">
         <v>34</v>
@@ -3133,13 +3112,13 @@
         <v>22770</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M25" s="7">
         <v>59</v>
@@ -3148,13 +3127,13 @@
         <v>39129</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3169,13 +3148,13 @@
         <v>152061</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H26" s="7">
         <v>198</v>
@@ -3184,13 +3163,13 @@
         <v>135208</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M26" s="7">
         <v>426</v>
@@ -3199,13 +3178,13 @@
         <v>287268</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3273,13 +3252,13 @@
         <v>7426</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="G28" s="7" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H28" s="7">
         <v>10</v>
@@ -3291,10 +3270,10 @@
         <v>80</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M28" s="7">
         <v>22</v>
@@ -3303,13 +3282,13 @@
         <v>13913</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3324,13 +3303,13 @@
         <v>5290</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H29" s="7">
         <v>14</v>
@@ -3339,13 +3318,13 @@
         <v>9068</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M29" s="7">
         <v>22</v>
@@ -3354,13 +3333,13 @@
         <v>14357</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3375,13 +3354,13 @@
         <v>20091</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H30" s="7">
         <v>37</v>
@@ -3390,13 +3369,13 @@
         <v>24570</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M30" s="7">
         <v>68</v>
@@ -3405,13 +3384,13 @@
         <v>44661</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,13 +3405,13 @@
         <v>35703</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H31" s="7">
         <v>50</v>
@@ -3441,13 +3420,13 @@
         <v>33278</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M31" s="7">
         <v>104</v>
@@ -3456,13 +3435,13 @@
         <v>68981</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,13 +3456,13 @@
         <v>241068</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H32" s="7">
         <v>320</v>
@@ -3492,13 +3471,13 @@
         <v>216589</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M32" s="7">
         <v>681</v>
@@ -3507,13 +3486,13 @@
         <v>457658</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3569,7 +3548,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3589,7 +3568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{737D60C1-FBFC-4F0D-9979-40A1A23FEA64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F300AB3E-15EB-4814-A647-93AD24CE1C4C}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3606,7 +3585,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4257,13 +4236,13 @@
         <v>6769</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -4272,13 +4251,13 @@
         <v>10418</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -4287,13 +4266,13 @@
         <v>17187</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>162</v>
+        <v>49</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>99</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,13 +4287,13 @@
         <v>12365</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -4323,13 +4302,13 @@
         <v>16425</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M17" s="7">
         <v>41</v>
@@ -4338,13 +4317,13 @@
         <v>28790</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>170</v>
+        <v>52</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,13 +4338,13 @@
         <v>23223</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H18" s="7">
         <v>21</v>
@@ -4374,13 +4353,13 @@
         <v>14574</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M18" s="7">
         <v>54</v>
@@ -4389,13 +4368,13 @@
         <v>37797</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,13 +4389,13 @@
         <v>18320</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>91</v>
+        <v>180</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H19" s="7">
         <v>23</v>
@@ -4425,13 +4404,13 @@
         <v>15881</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M19" s="7">
         <v>48</v>
@@ -4440,13 +4419,13 @@
         <v>34201</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4461,13 +4440,13 @@
         <v>93186</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H20" s="7">
         <v>132</v>
@@ -4476,13 +4455,13 @@
         <v>92666</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M20" s="7">
         <v>268</v>
@@ -4491,13 +4470,13 @@
         <v>185852</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,13 +4544,13 @@
         <v>6976</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -4580,13 +4559,13 @@
         <v>8030</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>77</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>202</v>
+        <v>135</v>
       </c>
       <c r="M22" s="7">
         <v>22</v>
@@ -4595,13 +4574,13 @@
         <v>15006</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4616,13 +4595,13 @@
         <v>11757</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H23" s="7">
         <v>19</v>
@@ -4631,13 +4610,13 @@
         <v>12615</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M23" s="7">
         <v>37</v>
@@ -4646,13 +4625,13 @@
         <v>24373</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,13 +4646,13 @@
         <v>9198</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H24" s="7">
         <v>25</v>
@@ -4682,13 +4661,13 @@
         <v>18608</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M24" s="7">
         <v>39</v>
@@ -4697,13 +4676,13 @@
         <v>27806</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,13 +4697,13 @@
         <v>25928</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
@@ -4733,13 +4712,13 @@
         <v>20875</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M25" s="7">
         <v>69</v>
@@ -4748,13 +4727,13 @@
         <v>46803</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4769,13 +4748,13 @@
         <v>116147</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H26" s="7">
         <v>145</v>
@@ -4784,13 +4763,13 @@
         <v>102080</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M26" s="7">
         <v>313</v>
@@ -4799,13 +4778,13 @@
         <v>218227</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>237</v>
+        <v>58</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,13 +4852,13 @@
         <v>13745</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>112</v>
+        <v>237</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H28" s="7">
         <v>26</v>
@@ -4888,13 +4867,13 @@
         <v>18448</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M28" s="7">
         <v>46</v>
@@ -4903,13 +4882,13 @@
         <v>32193</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>245</v>
+        <v>73</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4924,13 +4903,13 @@
         <v>24122</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H29" s="7">
         <v>42</v>
@@ -4939,13 +4918,13 @@
         <v>29041</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>43</v>
+        <v>246</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>250</v>
+        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>78</v>
@@ -4954,13 +4933,13 @@
         <v>53163</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4975,13 +4954,13 @@
         <v>32421</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H30" s="7">
         <v>46</v>
@@ -4990,13 +4969,13 @@
         <v>33182</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="M30" s="7">
         <v>93</v>
@@ -5005,13 +4984,13 @@
         <v>65603</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,13 +5005,13 @@
         <v>44248</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H31" s="7">
         <v>53</v>
@@ -5041,13 +5020,13 @@
         <v>36757</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="M31" s="7">
         <v>117</v>
@@ -5056,13 +5035,13 @@
         <v>81005</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>94</v>
+        <v>264</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,13 +5056,13 @@
         <v>209333</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H32" s="7">
         <v>277</v>
@@ -5092,13 +5071,13 @@
         <v>194747</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="M32" s="7">
         <v>581</v>
@@ -5107,13 +5086,13 @@
         <v>404079</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,7 +5148,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -5189,7 +5168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD55B431-247F-48B8-B6A6-98B7105F2ED2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFDD1C6E-9A41-4074-88DF-D1381998AAE8}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5206,7 +5185,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5857,13 +5836,13 @@
         <v>3748</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>157</v>
+        <v>277</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -5872,13 +5851,13 @@
         <v>4666</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -5887,13 +5866,13 @@
         <v>8414</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>285</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5908,13 +5887,13 @@
         <v>12469</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>287</v>
+        <v>26</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -5923,13 +5902,13 @@
         <v>10525</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>287</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>129</v>
+        <v>288</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
@@ -5938,13 +5917,13 @@
         <v>22994</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5959,13 +5938,13 @@
         <v>18226</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H18" s="7">
         <v>16</v>
@@ -5974,10 +5953,10 @@
         <v>11313</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>297</v>
@@ -5995,7 +5974,7 @@
         <v>299</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6010,13 +5989,13 @@
         <v>32980</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H19" s="7">
         <v>46</v>
@@ -6025,13 +6004,13 @@
         <v>31445</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M19" s="7">
         <v>92</v>
@@ -6040,10 +6019,10 @@
         <v>64425</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>307</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>308</v>
@@ -6186,7 +6165,7 @@
         <v>322</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>202</v>
+        <v>323</v>
       </c>
       <c r="M22" s="7">
         <v>20</v>
@@ -6195,13 +6174,13 @@
         <v>14707</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>43</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6216,13 +6195,13 @@
         <v>11550</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>198</v>
+        <v>328</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="H23" s="7">
         <v>12</v>
@@ -6231,13 +6210,13 @@
         <v>8956</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="M23" s="7">
         <v>28</v>
@@ -6246,13 +6225,13 @@
         <v>20505</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>330</v>
+        <v>218</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>331</v>
+        <v>86</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>216</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6267,13 +6246,13 @@
         <v>9612</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H24" s="7">
         <v>11</v>
@@ -6282,13 +6261,13 @@
         <v>7969</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>202</v>
+        <v>339</v>
       </c>
       <c r="M24" s="7">
         <v>25</v>
@@ -6297,13 +6276,13 @@
         <v>17581</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>338</v>
+        <v>118</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6318,13 +6297,13 @@
         <v>33404</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>341</v>
+        <v>263</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H25" s="7">
         <v>49</v>
@@ -6333,13 +6312,13 @@
         <v>35867</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M25" s="7">
         <v>92</v>
@@ -6348,13 +6327,13 @@
         <v>69272</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6369,13 +6348,13 @@
         <v>108699</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H26" s="7">
         <v>152</v>
@@ -6384,13 +6363,13 @@
         <v>104634</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M26" s="7">
         <v>299</v>
@@ -6399,13 +6378,13 @@
         <v>213334</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6473,7 +6452,7 @@
         <v>11074</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>359</v>
@@ -6494,7 +6473,7 @@
         <v>362</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="M28" s="7">
         <v>32</v>
@@ -6503,13 +6482,13 @@
         <v>23121</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6524,13 +6503,13 @@
         <v>24018</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="H29" s="7">
         <v>27</v>
@@ -6539,13 +6518,13 @@
         <v>19481</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M29" s="7">
         <v>61</v>
@@ -6554,13 +6533,13 @@
         <v>43500</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6575,13 +6554,13 @@
         <v>27838</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>375</v>
-      </c>
       <c r="G30" s="7" t="s">
-        <v>376</v>
+        <v>171</v>
       </c>
       <c r="H30" s="7">
         <v>27</v>
@@ -6590,13 +6569,13 @@
         <v>19282</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M30" s="7">
         <v>66</v>
@@ -6605,13 +6584,13 @@
         <v>47120</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="P30" s="7" t="s">
-        <v>380</v>
-      </c>
       <c r="Q30" s="7" t="s">
-        <v>381</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6626,13 +6605,13 @@
         <v>66384</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="H31" s="7">
         <v>95</v>
@@ -6641,13 +6620,13 @@
         <v>67312</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="M31" s="7">
         <v>184</v>
@@ -6656,13 +6635,13 @@
         <v>133696</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6677,13 +6656,13 @@
         <v>219888</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="H32" s="7">
         <v>327</v>
@@ -6692,13 +6671,13 @@
         <v>227572</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="M32" s="7">
         <v>630</v>
@@ -6707,13 +6686,13 @@
         <v>447460</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6769,7 +6748,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -6789,7 +6768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E52AFEA-3C7E-4811-94D0-341EE2AD25BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E644123-A9A7-4463-941E-072B5D904D4D}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6806,7 +6785,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7457,13 +7436,13 @@
         <v>1391</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -7472,13 +7451,13 @@
         <v>1363</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -7487,13 +7466,13 @@
         <v>2754</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>31</v>
+        <v>403</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>28</v>
+        <v>404</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>321</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7526,7 +7505,7 @@
         <v>409</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>410</v>
@@ -7562,10 +7541,10 @@
         <v>414</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>123</v>
+        <v>415</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -7574,13 +7553,13 @@
         <v>572</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>416</v>
+        <v>363</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -7765,13 +7744,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>438</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>69</v>
+        <v>439</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -7780,13 +7759,13 @@
         <v>1582</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -7795,13 +7774,13 @@
         <v>1582</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7816,13 +7795,13 @@
         <v>1182</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -7831,10 +7810,10 @@
         <v>3751</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>446</v>
+        <v>281</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>447</v>
@@ -7849,10 +7828,10 @@
         <v>448</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7867,13 +7846,13 @@
         <v>2832</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -7882,13 +7861,13 @@
         <v>2296</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="M24" s="7">
         <v>8</v>
@@ -7897,13 +7876,13 @@
         <v>5127</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7918,13 +7897,13 @@
         <v>12953</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>462</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -7933,13 +7912,13 @@
         <v>6560</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>360</v>
+        <v>282</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>463</v>
+        <v>21</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -7948,13 +7927,13 @@
         <v>19514</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7969,13 +7948,13 @@
         <v>149685</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H26" s="7">
         <v>154</v>
@@ -7984,13 +7963,13 @@
         <v>116691</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M26" s="7">
         <v>323</v>
@@ -7999,13 +7978,13 @@
         <v>266377</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>475</v>
+        <v>435</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8073,13 +8052,13 @@
         <v>1391</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -8088,13 +8067,13 @@
         <v>2945</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>125</v>
+        <v>474</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>479</v>
+        <v>160</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -8103,13 +8082,13 @@
         <v>4336</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8124,13 +8103,13 @@
         <v>3615</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>28</v>
+        <v>442</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>364</v>
+        <v>480</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -8139,13 +8118,13 @@
         <v>5194</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>37</v>
+        <v>482</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -8154,13 +8133,13 @@
         <v>8809</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8175,13 +8154,13 @@
         <v>3738</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>489</v>
+        <v>454</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="H30" s="7">
         <v>6</v>
@@ -8190,13 +8169,13 @@
         <v>2868</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="M30" s="7">
         <v>11</v>
@@ -8205,13 +8184,13 @@
         <v>6605</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>494</v>
+        <v>444</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8226,13 +8205,13 @@
         <v>24013</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>497</v>
+        <v>88</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>188</v>
+        <v>491</v>
       </c>
       <c r="H31" s="7">
         <v>19</v>
@@ -8241,13 +8220,13 @@
         <v>13854</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>499</v>
+        <v>318</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="M31" s="7">
         <v>43</v>
@@ -8256,13 +8235,13 @@
         <v>37867</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8277,13 +8256,13 @@
         <v>233245</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="H32" s="7">
         <v>234</v>
@@ -8292,13 +8271,13 @@
         <v>177685</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="M32" s="7">
         <v>503</v>
@@ -8307,13 +8286,13 @@
         <v>410929</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8369,7 +8348,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C19-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C19-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07ECBFDA-CE66-44B0-A263-7CFCC0237E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05186699-F7A8-4E97-8F01-DFD532E2320D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{371B8AAF-819E-4B1F-A561-D3CEE508E70C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DB5B640E-9D8B-4A4F-9519-7833C14AC2B0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="501">
   <si>
     <t>Menores según frecuencia de burlarse de él otros chicos en 2007 (Tasa respuesta: 42,63%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -95,1468 +95,1453 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>0,9%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de burlarse de él otros chicos en 2012 (Tasa respuesta: 43,59%)</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de burlarse de él otros chicos en 2016 (Tasa respuesta: 45,77%)</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
   </si>
   <si>
     <t>5,52%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de burlarse de él otros chicos en 2023 (Tasa respuesta: 29,95%)</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
   </si>
   <si>
     <t>1,32%</t>
   </si>
   <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de burlarse de él otros chicos en 2012 (Tasa respuesta: 43,59%)</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de burlarse de él otros chicos en 2016 (Tasa respuesta: 45,77%)</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
   </si>
   <si>
     <t>8,97%</t>
   </si>
   <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de burlarse de él otros chicos en 2023 (Tasa respuesta: 29,95%)</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
   </si>
   <si>
     <t>88,71%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
   </si>
 </sst>
 </file>
@@ -1968,7 +1953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94C91B8-A8EC-4DF5-879E-863F10F2156A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5926EE-A137-4DE5-BC3C-96C7D0F1BD5B}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2630,10 +2615,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>3057</v>
+        <v>2529</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -2645,10 +2630,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>2529</v>
+        <v>3057</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -2681,10 +2666,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D17" s="7">
-        <v>1879</v>
+        <v>4319</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>27</v>
@@ -2696,10 +2681,10 @@
         <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>4319</v>
+        <v>1879</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
@@ -2732,10 +2717,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D18" s="7">
-        <v>10195</v>
+        <v>12973</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>36</v>
@@ -2747,10 +2732,10 @@
         <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I18" s="7">
-        <v>12973</v>
+        <v>10195</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>39</v>
@@ -2783,10 +2768,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D19" s="7">
-        <v>19344</v>
+        <v>10508</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>45</v>
@@ -2798,10 +2783,10 @@
         <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I19" s="7">
-        <v>10508</v>
+        <v>19344</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>48</v>
@@ -2834,10 +2819,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D20" s="7">
-        <v>89007</v>
+        <v>81382</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>54</v>
@@ -2849,10 +2834,10 @@
         <v>56</v>
       </c>
       <c r="H20" s="7">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="I20" s="7">
-        <v>81382</v>
+        <v>89007</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>57</v>
@@ -2885,25 +2870,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>168</v>
+      </c>
+      <c r="D21" s="7">
+        <v>111711</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="7">
         <v>186</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>123481</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="7">
-        <v>168</v>
-      </c>
-      <c r="I21" s="7">
-        <v>111711</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>63</v>
@@ -2938,10 +2923,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22" s="7">
-        <v>4370</v>
+        <v>3958</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>65</v>
@@ -2950,22 +2935,22 @@
         <v>66</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="7">
+        <v>7</v>
+      </c>
+      <c r="I22" s="7">
+        <v>4370</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H22" s="7">
-        <v>6</v>
-      </c>
-      <c r="I22" s="7">
-        <v>3958</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -2974,13 +2959,13 @@
         <v>8328</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,34 +2974,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>7</v>
+      </c>
+      <c r="D23" s="7">
+        <v>4749</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="7">
         <v>5</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>3411</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H23" s="7">
-        <v>7</v>
-      </c>
-      <c r="I23" s="7">
-        <v>4749</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M23" s="7">
         <v>12</v>
@@ -3025,13 +3010,13 @@
         <v>8160</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3040,34 +3025,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>18</v>
+      </c>
+      <c r="D24" s="7">
+        <v>11597</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" s="7">
         <v>15</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>9897</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H24" s="7">
-        <v>18</v>
-      </c>
-      <c r="I24" s="7">
-        <v>11597</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M24" s="7">
         <v>33</v>
@@ -3076,13 +3061,13 @@
         <v>21493</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,34 +3076,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>34</v>
+      </c>
+      <c r="D25" s="7">
+        <v>22770</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H25" s="7">
         <v>25</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>16359</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="J25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="H25" s="7">
-        <v>34</v>
-      </c>
-      <c r="I25" s="7">
-        <v>22770</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M25" s="7">
         <v>59</v>
@@ -3127,13 +3112,13 @@
         <v>39129</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,34 +3127,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>198</v>
+      </c>
+      <c r="D26" s="7">
+        <v>135207</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H26" s="7">
         <v>228</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>152061</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="H26" s="7">
-        <v>198</v>
-      </c>
-      <c r="I26" s="7">
-        <v>135208</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M26" s="7">
         <v>426</v>
@@ -3178,13 +3163,13 @@
         <v>287268</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,25 +3178,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>263</v>
+      </c>
+      <c r="D27" s="7">
+        <v>178281</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
         <v>280</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>186097</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="7">
-        <v>263</v>
-      </c>
-      <c r="I27" s="7">
-        <v>178282</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>63</v>
@@ -3246,34 +3231,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>10</v>
+      </c>
+      <c r="D28" s="7">
+        <v>6487</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H28" s="7">
         <v>12</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>7426</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="J28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H28" s="7">
-        <v>10</v>
-      </c>
-      <c r="I28" s="7">
-        <v>6487</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M28" s="7">
         <v>22</v>
@@ -3282,13 +3267,13 @@
         <v>13913</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,34 +3282,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>14</v>
+      </c>
+      <c r="D29" s="7">
+        <v>9068</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H29" s="7">
         <v>8</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>5290</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F29" s="7" t="s">
+      <c r="J29" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H29" s="7">
-        <v>14</v>
-      </c>
-      <c r="I29" s="7">
-        <v>9068</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M29" s="7">
         <v>22</v>
@@ -3333,13 +3318,13 @@
         <v>14357</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3348,34 +3333,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>37</v>
+      </c>
+      <c r="D30" s="7">
+        <v>24570</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H30" s="7">
         <v>31</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>20091</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H30" s="7">
-        <v>37</v>
-      </c>
-      <c r="I30" s="7">
-        <v>24570</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M30" s="7">
         <v>68</v>
@@ -3384,13 +3369,13 @@
         <v>44661</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3399,34 +3384,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>50</v>
+      </c>
+      <c r="D31" s="7">
+        <v>33278</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H31" s="7">
         <v>54</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>35703</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="J31" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="H31" s="7">
-        <v>50</v>
-      </c>
-      <c r="I31" s="7">
-        <v>33278</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M31" s="7">
         <v>104</v>
@@ -3435,13 +3420,13 @@
         <v>68981</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,34 +3435,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>320</v>
+      </c>
+      <c r="D32" s="7">
+        <v>216589</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H32" s="7">
         <v>361</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>241068</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="J32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H32" s="7">
-        <v>320</v>
-      </c>
-      <c r="I32" s="7">
-        <v>216589</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M32" s="7">
         <v>681</v>
@@ -3486,13 +3471,13 @@
         <v>457658</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,25 +3486,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>431</v>
+      </c>
+      <c r="D33" s="7">
+        <v>289992</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>466</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>309578</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H33" s="7">
-        <v>431</v>
-      </c>
-      <c r="I33" s="7">
-        <v>289992</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>63</v>
@@ -3548,7 +3533,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3568,7 +3553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F300AB3E-15EB-4814-A647-93AD24CE1C4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E250E7FA-567D-4495-8CC2-779DCC4D5263}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3585,7 +3570,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4230,34 +4215,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>15</v>
+      </c>
+      <c r="D16" s="7">
+        <v>10418</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H16" s="7">
         <v>9</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>6769</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H16" s="7">
-        <v>15</v>
-      </c>
-      <c r="I16" s="7">
-        <v>10418</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -4266,13 +4251,13 @@
         <v>17187</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4281,34 +4266,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>23</v>
+      </c>
+      <c r="D17" s="7">
+        <v>16425</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H17" s="7">
         <v>18</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>12365</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="H17" s="7">
-        <v>23</v>
-      </c>
-      <c r="I17" s="7">
-        <v>16425</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M17" s="7">
         <v>41</v>
@@ -4317,13 +4302,13 @@
         <v>28790</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>52</v>
+        <v>164</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4332,34 +4317,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>21</v>
+      </c>
+      <c r="D18" s="7">
+        <v>14574</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H18" s="7">
         <v>33</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>23223</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="K18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H18" s="7">
-        <v>21</v>
-      </c>
-      <c r="I18" s="7">
-        <v>14574</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M18" s="7">
         <v>54</v>
@@ -4368,13 +4353,13 @@
         <v>37797</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4383,34 +4368,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>23</v>
+      </c>
+      <c r="D19" s="7">
+        <v>15881</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H19" s="7">
         <v>25</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>18320</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="J19" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="H19" s="7">
-        <v>23</v>
-      </c>
-      <c r="I19" s="7">
-        <v>15881</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M19" s="7">
         <v>48</v>
@@ -4419,13 +4404,13 @@
         <v>34201</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4434,34 +4419,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>132</v>
+      </c>
+      <c r="D20" s="7">
+        <v>92666</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H20" s="7">
         <v>136</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>93186</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="J20" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H20" s="7">
-        <v>132</v>
-      </c>
-      <c r="I20" s="7">
-        <v>92666</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M20" s="7">
         <v>268</v>
@@ -4470,13 +4455,13 @@
         <v>185852</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4485,25 +4470,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>214</v>
+      </c>
+      <c r="D21" s="7">
+        <v>149965</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="7">
         <v>221</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>153863</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="7">
-        <v>214</v>
-      </c>
-      <c r="I21" s="7">
-        <v>149965</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>63</v>
@@ -4541,31 +4526,31 @@
         <v>11</v>
       </c>
       <c r="D22" s="7">
+        <v>8030</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H22" s="7">
+        <v>11</v>
+      </c>
+      <c r="I22" s="7">
         <v>6976</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="H22" s="7">
-        <v>11</v>
-      </c>
-      <c r="I22" s="7">
-        <v>8030</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="M22" s="7">
         <v>22</v>
@@ -4574,13 +4559,13 @@
         <v>15006</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>200</v>
+        <v>127</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,34 +4574,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>19</v>
+      </c>
+      <c r="D23" s="7">
+        <v>12615</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H23" s="7">
         <v>18</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>11757</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="J23" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="H23" s="7">
-        <v>19</v>
-      </c>
-      <c r="I23" s="7">
-        <v>12615</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M23" s="7">
         <v>37</v>
@@ -4625,13 +4610,13 @@
         <v>24373</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4640,34 +4625,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>25</v>
+      </c>
+      <c r="D24" s="7">
+        <v>18608</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H24" s="7">
         <v>14</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>9198</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="H24" s="7">
-        <v>25</v>
-      </c>
-      <c r="I24" s="7">
-        <v>18608</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M24" s="7">
         <v>39</v>
@@ -4676,13 +4661,13 @@
         <v>27806</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>218</v>
+        <v>93</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4691,34 +4676,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>30</v>
+      </c>
+      <c r="D25" s="7">
+        <v>20875</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H25" s="7">
         <v>39</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>25928</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="J25" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H25" s="7">
-        <v>30</v>
-      </c>
-      <c r="I25" s="7">
-        <v>20875</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M25" s="7">
         <v>69</v>
@@ -4727,13 +4712,13 @@
         <v>46803</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4742,34 +4727,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>145</v>
+      </c>
+      <c r="D26" s="7">
+        <v>102080</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H26" s="7">
         <v>168</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>116147</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="J26" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="H26" s="7">
-        <v>145</v>
-      </c>
-      <c r="I26" s="7">
-        <v>102080</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M26" s="7">
         <v>313</v>
@@ -4778,13 +4763,13 @@
         <v>218227</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>58</v>
+        <v>231</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4793,25 +4778,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>230</v>
+      </c>
+      <c r="D27" s="7">
+        <v>162209</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
         <v>250</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>170006</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="7">
-        <v>230</v>
-      </c>
-      <c r="I27" s="7">
-        <v>162209</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>63</v>
@@ -4846,34 +4831,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>26</v>
+      </c>
+      <c r="D28" s="7">
+        <v>18448</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H28" s="7">
         <v>20</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>13745</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="J28" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="H28" s="7">
-        <v>26</v>
-      </c>
-      <c r="I28" s="7">
-        <v>18448</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M28" s="7">
         <v>46</v>
@@ -4882,13 +4867,13 @@
         <v>32193</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>73</v>
+        <v>240</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,34 +4882,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D29" s="7">
-        <v>24122</v>
+        <v>29041</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>131</v>
+        <v>242</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>244</v>
       </c>
       <c r="H29" s="7">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I29" s="7">
-        <v>29041</v>
+        <v>24122</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>78</v>
@@ -4948,34 +4933,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>46</v>
+      </c>
+      <c r="D30" s="7">
+        <v>33182</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H30" s="7">
         <v>47</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>32421</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="H30" s="7">
-        <v>46</v>
-      </c>
-      <c r="I30" s="7">
-        <v>33182</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M30" s="7">
         <v>93</v>
@@ -4984,13 +4969,13 @@
         <v>65603</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4999,34 +4984,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>53</v>
+      </c>
+      <c r="D31" s="7">
+        <v>36757</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H31" s="7">
         <v>64</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>44248</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H31" s="7">
-        <v>53</v>
-      </c>
-      <c r="I31" s="7">
-        <v>36757</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M31" s="7">
         <v>117</v>
@@ -5035,13 +5020,13 @@
         <v>81005</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5050,34 +5035,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>277</v>
+      </c>
+      <c r="D32" s="7">
+        <v>194747</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H32" s="7">
         <v>304</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>209333</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="H32" s="7">
-        <v>277</v>
-      </c>
-      <c r="I32" s="7">
-        <v>194747</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M32" s="7">
         <v>581</v>
@@ -5086,13 +5071,13 @@
         <v>404079</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,25 +5086,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>444</v>
+      </c>
+      <c r="D33" s="7">
+        <v>312174</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>471</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>323869</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H33" s="7">
-        <v>444</v>
-      </c>
-      <c r="I33" s="7">
-        <v>312174</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>63</v>
@@ -5148,7 +5133,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -5168,7 +5153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFDD1C6E-9A41-4074-88DF-D1381998AAE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1FF7C6-82C6-4494-8056-AF43BD9AF0CF}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5185,7 +5170,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5830,25 +5815,25 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>7</v>
+      </c>
+      <c r="D16" s="7">
+        <v>4666</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H16" s="7">
         <v>5</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>3748</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="H16" s="7">
-        <v>7</v>
-      </c>
-      <c r="I16" s="7">
-        <v>4666</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>280</v>
@@ -5869,10 +5854,10 @@
         <v>283</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>81</v>
+        <v>284</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>30</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5881,34 +5866,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>15</v>
+      </c>
+      <c r="D17" s="7">
+        <v>10525</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H17" s="7">
         <v>18</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>12469</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="H17" s="7">
-        <v>15</v>
-      </c>
-      <c r="I17" s="7">
-        <v>10525</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
@@ -5917,13 +5902,13 @@
         <v>22994</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>290</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5932,34 +5917,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>16</v>
+      </c>
+      <c r="D18" s="7">
+        <v>11313</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H18" s="7">
         <v>25</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>18226</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="H18" s="7">
-        <v>16</v>
-      </c>
-      <c r="I18" s="7">
-        <v>11313</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M18" s="7">
         <v>41</v>
@@ -5968,13 +5953,13 @@
         <v>29539</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5986,31 +5971,31 @@
         <v>46</v>
       </c>
       <c r="D19" s="7">
-        <v>32980</v>
+        <v>31445</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H19" s="7">
         <v>46</v>
       </c>
       <c r="I19" s="7">
-        <v>31445</v>
+        <v>32980</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M19" s="7">
         <v>92</v>
@@ -6019,13 +6004,13 @@
         <v>64425</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>310</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6034,34 +6019,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>175</v>
+      </c>
+      <c r="D20" s="7">
+        <v>122938</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H20" s="7">
         <v>156</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>111188</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="H20" s="7">
-        <v>175</v>
-      </c>
-      <c r="I20" s="7">
-        <v>122938</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="M20" s="7">
         <v>331</v>
@@ -6070,13 +6055,13 @@
         <v>234126</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6085,25 +6070,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>259</v>
+      </c>
+      <c r="D21" s="7">
+        <v>180887</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="7">
         <v>250</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>178611</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="7">
-        <v>259</v>
-      </c>
-      <c r="I21" s="7">
-        <v>180887</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>63</v>
@@ -6141,31 +6126,31 @@
         <v>10</v>
       </c>
       <c r="D22" s="7">
-        <v>7326</v>
+        <v>7381</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
       </c>
       <c r="I22" s="7">
-        <v>7381</v>
+        <v>7326</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>323</v>
+        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>20</v>
@@ -6174,13 +6159,13 @@
         <v>14707</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>325</v>
+        <v>72</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6189,34 +6174,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>12</v>
+      </c>
+      <c r="D23" s="7">
+        <v>8956</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H23" s="7">
         <v>16</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>11550</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="H23" s="7">
-        <v>12</v>
-      </c>
-      <c r="I23" s="7">
-        <v>8956</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M23" s="7">
         <v>28</v>
@@ -6225,13 +6210,13 @@
         <v>20505</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>86</v>
+        <v>235</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>333</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6240,34 +6225,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>11</v>
+      </c>
+      <c r="D24" s="7">
+        <v>7969</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H24" s="7">
         <v>14</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>9612</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="H24" s="7">
-        <v>11</v>
-      </c>
-      <c r="I24" s="7">
-        <v>7969</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>339</v>
+        <v>128</v>
       </c>
       <c r="M24" s="7">
         <v>25</v>
@@ -6279,10 +6264,10 @@
         <v>340</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>118</v>
+        <v>341</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6291,34 +6276,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>49</v>
+      </c>
+      <c r="D25" s="7">
+        <v>35867</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H25" s="7">
         <v>43</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>33404</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="H25" s="7">
-        <v>49</v>
-      </c>
-      <c r="I25" s="7">
-        <v>35867</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M25" s="7">
         <v>92</v>
@@ -6327,13 +6312,13 @@
         <v>69272</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6342,34 +6327,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>152</v>
+      </c>
+      <c r="D26" s="7">
+        <v>104634</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H26" s="7">
         <v>147</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>108699</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="H26" s="7">
-        <v>152</v>
-      </c>
-      <c r="I26" s="7">
-        <v>104634</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M26" s="7">
         <v>299</v>
@@ -6378,13 +6363,13 @@
         <v>213334</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6393,25 +6378,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>234</v>
+      </c>
+      <c r="D27" s="7">
+        <v>164807</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
         <v>230</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>170592</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="7">
-        <v>234</v>
-      </c>
-      <c r="I27" s="7">
-        <v>164807</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>63</v>
@@ -6446,34 +6431,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>17</v>
+      </c>
+      <c r="D28" s="7">
+        <v>12047</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="H28" s="7">
         <v>15</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>11074</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="H28" s="7">
-        <v>17</v>
-      </c>
-      <c r="I28" s="7">
-        <v>12047</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>334</v>
+        <v>84</v>
       </c>
       <c r="M28" s="7">
         <v>32</v>
@@ -6482,13 +6467,13 @@
         <v>23121</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6497,34 +6482,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>27</v>
+      </c>
+      <c r="D29" s="7">
+        <v>19481</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H29" s="7">
         <v>34</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>24018</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="H29" s="7">
-        <v>27</v>
-      </c>
-      <c r="I29" s="7">
-        <v>19481</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>296</v>
+        <v>371</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M29" s="7">
         <v>61</v>
@@ -6533,13 +6518,13 @@
         <v>43500</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6548,34 +6533,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>27</v>
+      </c>
+      <c r="D30" s="7">
+        <v>19282</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H30" s="7">
         <v>39</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>27838</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H30" s="7">
-        <v>27</v>
-      </c>
-      <c r="I30" s="7">
-        <v>19282</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>376</v>
+        <v>46</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M30" s="7">
         <v>66</v>
@@ -6584,13 +6569,13 @@
         <v>47120</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6599,34 +6584,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>95</v>
+      </c>
+      <c r="D31" s="7">
+        <v>67312</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="H31" s="7">
         <v>89</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>66384</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="H31" s="7">
-        <v>95</v>
-      </c>
-      <c r="I31" s="7">
-        <v>67312</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M31" s="7">
         <v>184</v>
@@ -6635,13 +6620,13 @@
         <v>133696</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6650,34 +6635,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>327</v>
+      </c>
+      <c r="D32" s="7">
+        <v>227572</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="H32" s="7">
         <v>303</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>219888</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="H32" s="7">
-        <v>327</v>
-      </c>
-      <c r="I32" s="7">
-        <v>227572</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M32" s="7">
         <v>630</v>
@@ -6686,13 +6671,13 @@
         <v>447460</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6701,25 +6686,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>493</v>
+      </c>
+      <c r="D33" s="7">
+        <v>345694</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>480</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>349203</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H33" s="7">
-        <v>493</v>
-      </c>
-      <c r="I33" s="7">
-        <v>345694</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>63</v>
@@ -6748,7 +6733,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -6768,7 +6753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E644123-A9A7-4463-941E-072B5D904D4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85B51F05-634E-4B66-B48E-85C49785EE5C}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6785,7 +6770,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7433,46 +7418,46 @@
         <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>1391</v>
+        <v>1369</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>1363</v>
+        <v>1336</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>400</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>208</v>
+        <v>404</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>2754</v>
+        <v>2705</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>403</v>
+        <v>121</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7481,49 +7466,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1404</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H17" s="7">
         <v>3</v>
       </c>
-      <c r="D17" s="7">
-        <v>2433</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>2648</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="H17" s="7">
-        <v>2</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1443</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>400</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>410</v>
+        <v>89</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
       </c>
       <c r="N17" s="7">
-        <v>3876</v>
+        <v>4051</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>412</v>
+        <v>76</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7532,49 +7517,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>2</v>
+      </c>
+      <c r="D18" s="7">
+        <v>547</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="H18" s="7">
         <v>1</v>
       </c>
-      <c r="D18" s="7">
-        <v>906</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="I18" s="7">
+        <v>923</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="H18" s="7">
-        <v>2</v>
-      </c>
-      <c r="I18" s="7">
-        <v>572</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
       </c>
       <c r="N18" s="7">
-        <v>1478</v>
+        <v>1470</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>419</v>
+        <v>341</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7583,49 +7568,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>9</v>
+      </c>
+      <c r="D19" s="7">
+        <v>6910</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="H19" s="7">
         <v>13</v>
       </c>
-      <c r="D19" s="7">
-        <v>11060</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="I19" s="7">
+        <v>10935</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="H19" s="7">
-        <v>9</v>
-      </c>
-      <c r="I19" s="7">
-        <v>7293</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
       </c>
       <c r="N19" s="7">
-        <v>18353</v>
+        <v>17846</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>427</v>
+        <v>176</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7634,49 +7619,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>80</v>
+      </c>
+      <c r="D20" s="7">
+        <v>57695</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="H20" s="7">
         <v>100</v>
       </c>
-      <c r="D20" s="7">
-        <v>83559</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="I20" s="7">
+        <v>83523</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="H20" s="7">
-        <v>80</v>
-      </c>
-      <c r="I20" s="7">
-        <v>60994</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>434</v>
       </c>
       <c r="M20" s="7">
         <v>180</v>
       </c>
       <c r="N20" s="7">
-        <v>144553</v>
+        <v>141218</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7685,25 +7670,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>95</v>
+      </c>
+      <c r="D21" s="7">
+        <v>67925</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="7">
         <v>119</v>
       </c>
-      <c r="D21" s="7">
-        <v>99348</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="7">
-        <v>95</v>
-      </c>
       <c r="I21" s="7">
-        <v>71665</v>
+        <v>99365</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>63</v>
@@ -7718,7 +7703,7 @@
         <v>214</v>
       </c>
       <c r="N21" s="7">
-        <v>171014</v>
+        <v>167290</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>63</v>
@@ -7738,49 +7723,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>1476</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>400</v>
+        <v>433</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>438</v>
+        <v>402</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="H22" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>1582</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>440</v>
+        <v>402</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>400</v>
+        <v>435</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>441</v>
+        <v>68</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>1582</v>
+        <v>1476</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7789,49 +7774,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>5</v>
+      </c>
+      <c r="D23" s="7">
+        <v>3681</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="H23" s="7">
         <v>2</v>
       </c>
-      <c r="D23" s="7">
-        <v>1182</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="H23" s="7">
-        <v>5</v>
-      </c>
       <c r="I23" s="7">
-        <v>3751</v>
+        <v>1229</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>281</v>
+        <v>402</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="M23" s="7">
         <v>7</v>
       </c>
       <c r="N23" s="7">
-        <v>4933</v>
+        <v>4910</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7843,46 +7828,46 @@
         <v>4</v>
       </c>
       <c r="D24" s="7">
-        <v>2832</v>
+        <v>2229</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
       </c>
       <c r="I24" s="7">
-        <v>2296</v>
+        <v>2844</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>454</v>
+        <v>31</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="M24" s="7">
         <v>8</v>
       </c>
       <c r="N24" s="7">
-        <v>5127</v>
+        <v>5072</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7891,49 +7876,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" s="7">
-        <v>12953</v>
+        <v>6148</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>361</v>
+        <v>437</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="H25" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I25" s="7">
-        <v>6560</v>
+        <v>13382</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>282</v>
+        <v>369</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
       </c>
       <c r="N25" s="7">
-        <v>19514</v>
+        <v>19530</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>463</v>
+        <v>295</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7942,49 +7927,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>154</v>
+      </c>
+      <c r="D26" s="7">
+        <v>129013</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="H26" s="7">
         <v>169</v>
       </c>
-      <c r="D26" s="7">
-        <v>149685</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="H26" s="7">
-        <v>154</v>
-      </c>
       <c r="I26" s="7">
-        <v>116691</v>
+        <v>154148</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>469</v>
+        <v>105</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="M26" s="7">
         <v>323</v>
       </c>
       <c r="N26" s="7">
-        <v>266377</v>
+        <v>283162</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>435</v>
+        <v>461</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7993,25 +7978,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>175</v>
+      </c>
+      <c r="D27" s="7">
+        <v>142547</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
         <v>186</v>
       </c>
-      <c r="D27" s="7">
-        <v>166652</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="7">
-        <v>175</v>
-      </c>
       <c r="I27" s="7">
-        <v>130880</v>
+        <v>171603</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>63</v>
@@ -8026,7 +8011,7 @@
         <v>361</v>
       </c>
       <c r="N27" s="7">
-        <v>297533</v>
+        <v>314150</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>63</v>
@@ -8046,49 +8031,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>4</v>
+      </c>
+      <c r="D28" s="7">
+        <v>2845</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="H28" s="7">
         <v>2</v>
       </c>
-      <c r="D28" s="7">
-        <v>1391</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="H28" s="7">
-        <v>4</v>
-      </c>
       <c r="I28" s="7">
-        <v>2945</v>
+        <v>1336</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>475</v>
+        <v>402</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>160</v>
+        <v>467</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
       </c>
       <c r="N28" s="7">
-        <v>4336</v>
+        <v>4181</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8097,49 +8082,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>7</v>
+      </c>
+      <c r="D29" s="7">
+        <v>5085</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="H29" s="7">
         <v>5</v>
       </c>
-      <c r="D29" s="7">
-        <v>3615</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="H29" s="7">
-        <v>7</v>
-      </c>
       <c r="I29" s="7">
-        <v>5194</v>
+        <v>3876</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>338</v>
+        <v>473</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>481</v>
+        <v>405</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
       </c>
       <c r="N29" s="7">
-        <v>8809</v>
+        <v>8961</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8148,49 +8133,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>6</v>
+      </c>
+      <c r="D30" s="7">
+        <v>2775</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="H30" s="7">
         <v>5</v>
       </c>
-      <c r="D30" s="7">
-        <v>3738</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="H30" s="7">
-        <v>6</v>
-      </c>
       <c r="I30" s="7">
-        <v>2868</v>
+        <v>3766</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>473</v>
+        <v>436</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="M30" s="7">
         <v>11</v>
       </c>
       <c r="N30" s="7">
-        <v>6605</v>
+        <v>6542</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>444</v>
+        <v>484</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>489</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8199,49 +8184,49 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>19</v>
+      </c>
+      <c r="D31" s="7">
+        <v>13058</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="H31" s="7">
         <v>24</v>
       </c>
-      <c r="D31" s="7">
-        <v>24013</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="H31" s="7">
-        <v>19</v>
-      </c>
       <c r="I31" s="7">
-        <v>13854</v>
+        <v>24318</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>318</v>
+        <v>487</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="M31" s="7">
         <v>43</v>
       </c>
       <c r="N31" s="7">
-        <v>37867</v>
+        <v>37376</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8250,49 +8235,49 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>234</v>
+      </c>
+      <c r="D32" s="7">
+        <v>186708</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="H32" s="7">
         <v>269</v>
       </c>
-      <c r="D32" s="7">
-        <v>233245</v>
-      </c>
-      <c r="E32" s="7" t="s">
+      <c r="I32" s="7">
+        <v>237671</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="H32" s="7">
-        <v>234</v>
-      </c>
-      <c r="I32" s="7">
-        <v>177685</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>502</v>
       </c>
       <c r="M32" s="7">
         <v>503</v>
       </c>
       <c r="N32" s="7">
-        <v>410929</v>
+        <v>424379</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8301,25 +8286,25 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>270</v>
+      </c>
+      <c r="D33" s="7">
+        <v>210472</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>305</v>
       </c>
-      <c r="D33" s="7">
-        <v>266001</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H33" s="7">
-        <v>270</v>
-      </c>
       <c r="I33" s="7">
-        <v>202546</v>
+        <v>270968</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>63</v>
@@ -8334,7 +8319,7 @@
         <v>575</v>
       </c>
       <c r="N33" s="7">
-        <v>468546</v>
+        <v>481440</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>63</v>
@@ -8348,7 +8333,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
